--- a/data/Megadataset.xlsx
+++ b/data/Megadataset.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2560" uniqueCount="1672">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="1745">
   <si>
     <t xml:space="preserve">rownames</t>
   </si>
@@ -960,7 +960,7 @@
     <t xml:space="preserve">GUY</t>
   </si>
   <si>
-    <t xml:space="preserve">HIP</t>
+    <t xml:space="preserve">IND_HP </t>
   </si>
   <si>
     <t xml:space="preserve">HKG</t>
@@ -1347,7 +1347,7 @@
     <t xml:space="preserve">SYR</t>
   </si>
   <si>
-    <t xml:space="preserve">TAM</t>
+    <t xml:space="preserve">IND_TN </t>
   </si>
   <si>
     <t xml:space="preserve">TCA</t>
@@ -3432,25 +3432,235 @@
     <t xml:space="preserve">Ungarn</t>
   </si>
   <si>
+    <t xml:space="preserve">Iceland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indien</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andhra Pradesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_AP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arunachal Pradesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_AR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_AS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bihar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_BR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chhattisgarh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_CT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_GA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gujarat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_GJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haryana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_HR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Himachal Pradesh</t>
+  </si>
+  <si>
     <t xml:space="preserve">Him. Prad.</t>
   </si>
   <si>
     <t xml:space="preserve">Hima. Prad., India</t>
   </si>
   <si>
+    <t xml:space="preserve">Jammu and Kashmir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_JK </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jharkhand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_JH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karnataka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_KA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kerala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_KL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madhya Pradesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_MP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maharashtra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_MH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manipur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_MN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meghalaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_ML </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mizoram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_MZ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nagaland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_NL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Odisha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_OR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punjab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_PB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rajasthan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_RJ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sikkim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_SK </t>
+  </si>
+  <si>
     <t xml:space="preserve">Tamil Nadu</t>
   </si>
   <si>
-    <t xml:space="preserve">Iceland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indien</t>
+    <t xml:space="preserve">Tamil Nadu, India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telangana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_TG </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tripura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_TR </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uttarakhand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_UT </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uttar Pradesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_UP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Bengal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_WB </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andaman and Nicobar Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_AN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chandigarh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_CH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dadra and Nagar Haveli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_DN </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daman and Diu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_DD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_DL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakshadweep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_LD </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puducherry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IND_PY </t>
   </si>
   <si>
     <t xml:space="preserve">Indonesia</t>
@@ -4095,6 +4305,9 @@
     <t xml:space="preserve">Occupied Palestinian Territory</t>
   </si>
   <si>
+    <t xml:space="preserve">Occ. Palest. Ter.</t>
+  </si>
+  <si>
     <t xml:space="preserve">West Bank and Gaza</t>
   </si>
   <si>
@@ -4197,6 +4410,9 @@
     <t xml:space="preserve">Russia</t>
   </si>
   <si>
+    <t xml:space="preserve">Russian Fed.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rusland</t>
   </si>
   <si>
@@ -4360,6 +4576,9 @@
   </si>
   <si>
     <t xml:space="preserve">Shanghai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shanghai (China)</t>
   </si>
   <si>
     <t xml:space="preserve">Shanghai-China</t>
@@ -5201,86 +5420,86 @@
   </sheetPr>
   <dimension ref="1:438"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
-      <selection pane="bottomRight" activeCell="A44" activeCellId="0" sqref="A44"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B96" activeCellId="0" sqref="B96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.3469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.3010204081633"/>
-    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="23.4897959183673"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.5459183673469"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="25.3775510204082"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="124" min="21" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="128" min="125" style="0" width="8.77551020408163"/>
-    <col collapsed="false" hidden="false" max="129" min="129" style="0" width="8.63775510204082"/>
-    <col collapsed="false" hidden="false" max="132" min="130" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="133" min="133" style="0" width="13.2295918367347"/>
-    <col collapsed="false" hidden="false" max="134" min="134" style="0" width="12.4183673469388"/>
-    <col collapsed="false" hidden="false" max="135" min="135" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="136" min="136" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="137" min="137" style="0" width="22.8112244897959"/>
-    <col collapsed="false" hidden="false" max="138" min="138" style="0" width="25.9183673469388"/>
-    <col collapsed="false" hidden="false" max="139" min="139" style="0" width="25.6479591836735"/>
-    <col collapsed="false" hidden="false" max="140" min="140" style="0" width="29.5612244897959"/>
-    <col collapsed="false" hidden="false" max="141" min="141" style="0" width="27.6734693877551"/>
-    <col collapsed="false" hidden="false" max="142" min="142" style="0" width="31.5867346938776"/>
-    <col collapsed="false" hidden="false" max="143" min="143" style="0" width="29.5612244897959"/>
-    <col collapsed="false" hidden="false" max="144" min="144" style="0" width="34.9642857142857"/>
-    <col collapsed="false" hidden="false" max="145" min="145" style="0" width="32.9387755102041"/>
-    <col collapsed="false" hidden="false" max="146" min="146" style="0" width="29.1581632653061"/>
-    <col collapsed="false" hidden="false" max="147" min="147" style="0" width="27.4030612244898"/>
-    <col collapsed="false" hidden="false" max="148" min="148" style="0" width="27.9438775510204"/>
-    <col collapsed="false" hidden="false" max="149" min="149" style="0" width="25.9183673469388"/>
-    <col collapsed="false" hidden="false" max="150" min="150" style="0" width="28.6173469387755"/>
-    <col collapsed="false" hidden="false" max="151" min="151" style="0" width="30.2397959183673"/>
-    <col collapsed="false" hidden="false" max="152" min="152" style="0" width="29.1581632653061"/>
-    <col collapsed="false" hidden="false" max="153" min="153" style="0" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="154" min="154" style="0" width="46.9795918367347"/>
-    <col collapsed="false" hidden="false" max="155" min="155" style="0" width="43.1989795918367"/>
-    <col collapsed="false" hidden="false" max="156" min="156" style="0" width="43.0612244897959"/>
-    <col collapsed="false" hidden="false" max="157" min="157" style="0" width="23.8928571428571"/>
-    <col collapsed="false" hidden="false" max="158" min="158" style="0" width="33.75"/>
-    <col collapsed="false" hidden="false" max="160" min="159" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="161" min="161" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="162" min="162" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="163" min="163" style="0" width="27.9438775510204"/>
-    <col collapsed="false" hidden="false" max="164" min="164" style="0" width="27.8061224489796"/>
-    <col collapsed="false" hidden="false" max="167" min="165" style="0" width="27.9438775510204"/>
-    <col collapsed="false" hidden="false" max="168" min="168" style="0" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="169" min="169" style="0" width="29.8316326530612"/>
-    <col collapsed="false" hidden="false" max="172" min="170" style="0" width="30.1020408163265"/>
-    <col collapsed="false" hidden="false" max="174" min="173" style="0" width="26.5918367346939"/>
-    <col collapsed="false" hidden="false" max="179" min="175" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="180" min="180" style="0" width="18.0867346938776"/>
-    <col collapsed="false" hidden="false" max="185" min="181" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="186" min="186" style="0" width="26.4591836734694"/>
-    <col collapsed="false" hidden="false" max="190" min="187" style="0" width="26.5918367346939"/>
-    <col collapsed="false" hidden="false" max="191" min="191" style="0" width="27.1326530612245"/>
-    <col collapsed="false" hidden="false" max="196" min="192" style="0" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="197" min="197" style="0" width="27.9438775510204"/>
-    <col collapsed="false" hidden="false" max="198" min="198" style="0" width="30.5102040816327"/>
-    <col collapsed="false" hidden="false" max="199" min="199" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="200" min="200" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="201" min="201" style="0" width="17.280612244898"/>
-    <col collapsed="false" hidden="false" max="202" min="202" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="203" min="203" style="0" width="14.9744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="204" style="0" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28.484693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="27.6734693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.4897959183673"/>
+    <col collapsed="false" hidden="false" max="13" min="9" style="0" width="7.83163265306122"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="22.1377551020408"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="24.8367346938776"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="124" min="21" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="128" min="125" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="129" min="129" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="132" min="130" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="133" min="133" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="134" min="134" style="0" width="12.1479591836735"/>
+    <col collapsed="false" hidden="false" max="135" min="135" style="0" width="11.6071428571429"/>
+    <col collapsed="false" hidden="false" max="136" min="136" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="137" min="137" style="0" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="138" min="138" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="139" min="139" style="0" width="25.1071428571429"/>
+    <col collapsed="false" hidden="false" max="140" min="140" style="0" width="28.7551020408163"/>
+    <col collapsed="false" hidden="false" max="141" min="141" style="0" width="27.1326530612245"/>
+    <col collapsed="false" hidden="false" max="142" min="142" style="0" width="30.780612244898"/>
+    <col collapsed="false" hidden="false" max="143" min="143" style="0" width="28.7551020408163"/>
+    <col collapsed="false" hidden="false" max="144" min="144" style="0" width="34.1530612244898"/>
+    <col collapsed="false" hidden="false" max="145" min="145" style="0" width="32.1275510204082"/>
+    <col collapsed="false" hidden="false" max="146" min="146" style="0" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="147" min="147" style="0" width="26.7295918367347"/>
+    <col collapsed="false" hidden="false" max="148" min="148" style="0" width="27.4030612244898"/>
+    <col collapsed="false" hidden="false" max="149" min="149" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="150" min="150" style="0" width="27.8061224489796"/>
+    <col collapsed="false" hidden="false" max="151" min="151" style="0" width="29.4285714285714"/>
+    <col collapsed="false" hidden="false" max="152" min="152" style="0" width="28.3469387755102"/>
+    <col collapsed="false" hidden="false" max="153" min="153" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="154" min="154" style="0" width="45.8979591836735"/>
+    <col collapsed="false" hidden="false" max="155" min="155" style="0" width="42.25"/>
+    <col collapsed="false" hidden="false" max="156" min="156" style="0" width="42.1173469387755"/>
+    <col collapsed="false" hidden="false" max="157" min="157" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="158" min="158" style="0" width="32.8010204081633"/>
+    <col collapsed="false" hidden="false" max="160" min="159" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="161" min="161" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="162" min="162" style="0" width="22.5459183673469"/>
+    <col collapsed="false" hidden="false" max="163" min="163" style="0" width="27.4030612244898"/>
+    <col collapsed="false" hidden="false" max="164" min="164" style="0" width="27.2704081632653"/>
+    <col collapsed="false" hidden="false" max="167" min="165" style="0" width="27.4030612244898"/>
+    <col collapsed="false" hidden="false" max="168" min="168" style="0" width="29.2908163265306"/>
+    <col collapsed="false" hidden="false" max="169" min="169" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="172" min="170" style="0" width="29.2908163265306"/>
+    <col collapsed="false" hidden="false" max="174" min="173" style="0" width="25.7857142857143"/>
+    <col collapsed="false" hidden="false" max="179" min="175" style="0" width="20.3826530612245"/>
+    <col collapsed="false" hidden="false" max="180" min="180" style="0" width="17.5510204081633"/>
+    <col collapsed="false" hidden="false" max="185" min="181" style="0" width="25.3775510204082"/>
+    <col collapsed="false" hidden="false" max="186" min="186" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="190" min="187" style="0" width="25.7857142857143"/>
+    <col collapsed="false" hidden="false" max="191" min="191" style="0" width="26.3214285714286"/>
+    <col collapsed="false" hidden="false" max="196" min="192" style="0" width="26.8622448979592"/>
+    <col collapsed="false" hidden="false" max="197" min="197" style="0" width="27.4030612244898"/>
+    <col collapsed="false" hidden="false" max="198" min="198" style="0" width="29.8316326530612"/>
+    <col collapsed="false" hidden="false" max="199" min="199" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="200" min="200" style="0" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="201" min="201" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="202" min="202" style="0" width="22.4081632653061"/>
+    <col collapsed="false" hidden="false" max="203" min="203" style="0" width="14.4438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="204" style="0" width="18.3571428571429"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19963,7 +20182,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="4" t="s">
+      <c r="A108" s="0" t="s">
         <v>312</v>
       </c>
     </row>
@@ -39647,7 +39866,7 @@
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="4" t="s">
+      <c r="A236" s="0" t="s">
         <v>441</v>
       </c>
     </row>
@@ -45215,8 +45434,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="91.8214285714286"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="89.7704081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="17.8214285714286"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -45646,17 +45867,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B907"/>
+  <dimension ref="A1:B946"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A833" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E857" activeCellId="0" sqref="E857"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A369" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A379" activeCellId="0" sqref="A379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="47.1122448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.85204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.030612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.030612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.4642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48579,7 +48802,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="366" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="11" t="s">
         <v>1127</v>
       </c>
@@ -48656,15 +48879,15 @@
         <v>1136</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="376" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="0" t="s">
         <v>1137</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48672,7 +48895,7 @@
         <v>1138</v>
       </c>
       <c r="B377" s="0" t="s">
-        <v>441</v>
+        <v>320</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48680,7 +48903,7 @@
         <v>1139</v>
       </c>
       <c r="B378" s="0" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48688,4230 +48911,4542 @@
         <v>1140</v>
       </c>
       <c r="B379" s="0" t="s">
-        <v>324</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="0" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B380" s="0" t="s">
-        <v>320</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="0" t="s">
-        <v>1142</v>
+        <v>1144</v>
       </c>
       <c r="B381" s="0" t="s">
-        <v>320</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="0" t="s">
-        <v>1143</v>
+        <v>1146</v>
       </c>
       <c r="B382" s="0" t="s">
-        <v>318</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="0" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
       <c r="B383" s="0" t="s">
-        <v>318</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="0" t="s">
-        <v>1145</v>
+        <v>1150</v>
       </c>
       <c r="B384" s="0" t="s">
-        <v>322</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="0" t="s">
-        <v>1146</v>
+        <v>1152</v>
       </c>
       <c r="B385" s="0" t="s">
-        <v>322</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="0" t="s">
-        <v>1147</v>
+        <v>1154</v>
       </c>
       <c r="B386" s="0" t="s">
-        <v>322</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="0" t="s">
-        <v>1148</v>
+        <v>1156</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="0" t="s">
-        <v>1149</v>
+        <v>1157</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="389" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="11" t="s">
-        <v>1150</v>
+        <v>1158</v>
       </c>
       <c r="B389" s="0" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
     </row>
     <row r="390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="0" t="s">
-        <v>1151</v>
+        <v>1159</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>323</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="0" t="s">
-        <v>1152</v>
+        <v>1161</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>323</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="0" t="s">
-        <v>1153</v>
+        <v>1163</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>321</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="0" t="s">
-        <v>1154</v>
+        <v>1165</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>321</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="0" t="s">
-        <v>1155</v>
+        <v>1167</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>321</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="0" t="s">
-        <v>1156</v>
+        <v>1169</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>319</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="0" t="s">
-        <v>1157</v>
+        <v>1171</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>325</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="0" t="s">
-        <v>1158</v>
+        <v>1173</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>325</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="0" t="s">
-        <v>1159</v>
+        <v>1175</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>326</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="0" t="s">
-        <v>1160</v>
+        <v>1177</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>326</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A400" s="0" t="s">
-        <v>1161</v>
+        <v>1179</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>326</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A401" s="0" t="s">
-        <v>1162</v>
+        <v>1181</v>
       </c>
       <c r="B401" s="0" t="s">
-        <v>327</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="0" t="s">
-        <v>1163</v>
+        <v>1183</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>330</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="0" t="s">
-        <v>1164</v>
+        <v>1185</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>330</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="0" t="s">
-        <v>1165</v>
+        <v>1187</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A405" s="0" t="s">
-        <v>1166</v>
+        <v>441</v>
+      </c>
+    </row>
+    <row r="405" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A405" s="11" t="s">
+        <v>1188</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>329</v>
+        <v>441</v>
       </c>
     </row>
     <row r="406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="0" t="s">
-        <v>1167</v>
+        <v>1189</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>329</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="0" t="s">
-        <v>1168</v>
+        <v>1191</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>331</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A408" s="0" t="s">
-        <v>1169</v>
+        <v>1193</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>331</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A409" s="0" t="s">
-        <v>1170</v>
+        <v>1195</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>332</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="0" t="s">
-        <v>1171</v>
+        <v>1197</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>335</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="0" t="s">
-        <v>1172</v>
+        <v>1199</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>338</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="0" t="s">
-        <v>1173</v>
+        <v>1201</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>402</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="0" t="s">
-        <v>1174</v>
+        <v>1203</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>402</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="0" t="s">
-        <v>1175</v>
+        <v>1205</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>402</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="0" t="s">
-        <v>1176</v>
+        <v>1207</v>
       </c>
       <c r="B415" s="0" t="s">
-        <v>402</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="0" t="s">
-        <v>1177</v>
+        <v>1209</v>
       </c>
       <c r="B416" s="0" t="s">
-        <v>402</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="0" t="s">
-        <v>1178</v>
+        <v>1211</v>
       </c>
       <c r="B417" s="0" t="s">
-        <v>402</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="0" t="s">
-        <v>1179</v>
+        <v>1213</v>
       </c>
       <c r="B418" s="0" t="s">
-        <v>402</v>
+        <v>318</v>
       </c>
     </row>
     <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="0" t="s">
-        <v>1180</v>
+        <v>1214</v>
       </c>
       <c r="B419" s="0" t="s">
-        <v>402</v>
+        <v>318</v>
       </c>
     </row>
     <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="0" t="s">
-        <v>1181</v>
+        <v>1215</v>
       </c>
       <c r="B420" s="0" t="s">
-        <v>402</v>
+        <v>322</v>
       </c>
     </row>
     <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="0" t="s">
-        <v>1182</v>
+        <v>1216</v>
       </c>
       <c r="B421" s="0" t="s">
-        <v>402</v>
+        <v>322</v>
       </c>
     </row>
     <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="0" t="s">
-        <v>1183</v>
+        <v>1217</v>
       </c>
       <c r="B422" s="0" t="s">
-        <v>402</v>
+        <v>322</v>
       </c>
     </row>
     <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="0" t="s">
-        <v>1184</v>
+        <v>1218</v>
       </c>
       <c r="B423" s="0" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="0" t="s">
-        <v>1185</v>
+        <v>1219</v>
       </c>
       <c r="B424" s="0" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A425" s="0" t="s">
-        <v>1186</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A425" s="11" t="s">
+        <v>1220</v>
       </c>
       <c r="B425" s="0" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
     </row>
     <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="0" t="s">
-        <v>1187</v>
+        <v>1221</v>
       </c>
       <c r="B426" s="0" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
     </row>
     <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="0" t="s">
-        <v>1188</v>
+        <v>1222</v>
       </c>
       <c r="B427" s="0" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
     </row>
     <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="0" t="s">
-        <v>1189</v>
+        <v>1223</v>
       </c>
       <c r="B428" s="0" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="0" t="s">
-        <v>1190</v>
+        <v>1224</v>
       </c>
       <c r="B429" s="0" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="0" t="s">
-        <v>1191</v>
+        <v>1225</v>
       </c>
       <c r="B430" s="0" t="s">
-        <v>337</v>
+        <v>321</v>
       </c>
     </row>
     <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="0" t="s">
-        <v>1192</v>
+        <v>1226</v>
       </c>
       <c r="B431" s="0" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
     </row>
     <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="0" t="s">
-        <v>1193</v>
+        <v>1227</v>
       </c>
       <c r="B432" s="0" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="0" t="s">
-        <v>1194</v>
+        <v>1228</v>
       </c>
       <c r="B433" s="0" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
     </row>
     <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="0" t="s">
-        <v>1195</v>
+        <v>1229</v>
       </c>
       <c r="B434" s="0" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="0" t="s">
-        <v>1196</v>
+        <v>1230</v>
       </c>
       <c r="B435" s="0" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="0" t="s">
-        <v>1197</v>
+        <v>1231</v>
       </c>
       <c r="B436" s="0" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="0" t="s">
-        <v>1198</v>
+        <v>1232</v>
       </c>
       <c r="B437" s="0" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="0" t="s">
-        <v>1199</v>
+        <v>1233</v>
       </c>
       <c r="B438" s="0" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="0" t="s">
-        <v>1200</v>
+        <v>1234</v>
       </c>
       <c r="B439" s="0" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="0" t="s">
-        <v>1201</v>
+        <v>1235</v>
       </c>
       <c r="B440" s="0" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="0" t="s">
-        <v>1202</v>
+        <v>1236</v>
       </c>
       <c r="B441" s="0" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="0" t="s">
-        <v>1203</v>
+        <v>1237</v>
       </c>
       <c r="B442" s="0" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="0" t="s">
-        <v>1204</v>
+        <v>1238</v>
       </c>
       <c r="B443" s="0" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="0" t="s">
-        <v>1205</v>
+        <v>1239</v>
       </c>
       <c r="B444" s="0" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
     </row>
     <row r="445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="0" t="s">
-        <v>1206</v>
+        <v>1240</v>
       </c>
       <c r="B445" s="0" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="0" t="s">
-        <v>1207</v>
+        <v>1241</v>
       </c>
       <c r="B446" s="0" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
     </row>
     <row r="447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="0" t="s">
-        <v>1208</v>
+        <v>1242</v>
       </c>
       <c r="B447" s="0" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
     </row>
     <row r="448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="0" t="s">
-        <v>1209</v>
+        <v>1243</v>
       </c>
       <c r="B448" s="0" t="s">
-        <v>351</v>
+        <v>402</v>
       </c>
     </row>
     <row r="449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="0" t="s">
-        <v>1210</v>
+        <v>1244</v>
       </c>
       <c r="B449" s="0" t="s">
-        <v>342</v>
+        <v>402</v>
       </c>
     </row>
     <row r="450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="0" t="s">
-        <v>1211</v>
+        <v>1245</v>
       </c>
       <c r="B450" s="0" t="s">
-        <v>342</v>
+        <v>402</v>
       </c>
     </row>
     <row r="451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="0" t="s">
-        <v>1212</v>
+        <v>1246</v>
       </c>
       <c r="B451" s="0" t="s">
-        <v>342</v>
+        <v>402</v>
       </c>
     </row>
     <row r="452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="0" t="s">
-        <v>1213</v>
+        <v>1247</v>
       </c>
       <c r="B452" s="0" t="s">
-        <v>348</v>
+        <v>402</v>
       </c>
     </row>
     <row r="453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="0" t="s">
-        <v>1214</v>
+        <v>1248</v>
       </c>
       <c r="B453" s="0" t="s">
-        <v>343</v>
+        <v>402</v>
       </c>
     </row>
     <row r="454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="0" t="s">
-        <v>1215</v>
+        <v>1249</v>
       </c>
       <c r="B454" s="0" t="s">
-        <v>344</v>
+        <v>402</v>
       </c>
     </row>
     <row r="455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="0" t="s">
-        <v>1216</v>
+        <v>1250</v>
       </c>
       <c r="B455" s="0" t="s">
-        <v>344</v>
+        <v>402</v>
       </c>
     </row>
     <row r="456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="0" t="s">
-        <v>1217</v>
+        <v>1251</v>
       </c>
       <c r="B456" s="0" t="s">
-        <v>344</v>
+        <v>402</v>
       </c>
     </row>
     <row r="457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="0" t="s">
-        <v>1218</v>
+        <v>1252</v>
       </c>
       <c r="B457" s="0" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="458" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A458" s="11" t="s">
-        <v>1219</v>
+        <v>402</v>
+      </c>
+    </row>
+    <row r="458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A458" s="0" t="s">
+        <v>1253</v>
       </c>
       <c r="B458" s="0" t="s">
-        <v>346</v>
+        <v>402</v>
       </c>
     </row>
     <row r="459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="0" t="s">
-        <v>1220</v>
+        <v>1254</v>
       </c>
       <c r="B459" s="0" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="0" t="s">
-        <v>1221</v>
+        <v>1255</v>
       </c>
       <c r="B460" s="0" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="0" t="s">
-        <v>1222</v>
+        <v>1256</v>
       </c>
       <c r="B461" s="0" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
     </row>
     <row r="462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="0" t="s">
-        <v>1223</v>
+        <v>1257</v>
       </c>
       <c r="B462" s="0" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
     </row>
     <row r="463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="0" t="s">
-        <v>1224</v>
+        <v>1258</v>
       </c>
       <c r="B463" s="0" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
     </row>
     <row r="464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="0" t="s">
-        <v>1225</v>
+        <v>1259</v>
       </c>
       <c r="B464" s="0" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="0" t="s">
-        <v>1226</v>
+        <v>1260</v>
       </c>
       <c r="B465" s="0" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="466" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A466" s="11" t="s">
-        <v>1227</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A466" s="0" t="s">
+        <v>1261</v>
       </c>
       <c r="B466" s="0" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="0" t="s">
-        <v>1228</v>
+        <v>1262</v>
       </c>
       <c r="B467" s="0" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="0" t="s">
-        <v>1229</v>
+        <v>1263</v>
       </c>
       <c r="B468" s="0" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
     </row>
     <row r="469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="0" t="s">
-        <v>1230</v>
+        <v>1264</v>
       </c>
       <c r="B469" s="0" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
     </row>
     <row r="470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A470" s="0" t="s">
-        <v>1231</v>
+        <v>1265</v>
       </c>
       <c r="B470" s="0" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="471" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A471" s="11" t="s">
-        <v>1232</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A471" s="0" t="s">
+        <v>1266</v>
       </c>
       <c r="B471" s="0" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
     </row>
     <row r="472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="0" t="s">
-        <v>1233</v>
+        <v>1267</v>
       </c>
       <c r="B472" s="0" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
     </row>
     <row r="473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="0" t="s">
-        <v>1234</v>
+        <v>1268</v>
       </c>
       <c r="B473" s="0" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
     </row>
     <row r="474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="0" t="s">
-        <v>1235</v>
+        <v>1269</v>
       </c>
       <c r="B474" s="0" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
     </row>
     <row r="475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="0" t="s">
-        <v>1236</v>
+        <v>1270</v>
       </c>
       <c r="B475" s="0" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
     </row>
     <row r="476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="0" t="s">
-        <v>1237</v>
+        <v>1271</v>
       </c>
       <c r="B476" s="0" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
     </row>
     <row r="477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="0" t="s">
-        <v>1238</v>
+        <v>1272</v>
       </c>
       <c r="B477" s="0" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
     </row>
     <row r="478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="0" t="s">
-        <v>1239</v>
+        <v>1273</v>
       </c>
       <c r="B478" s="0" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
     </row>
     <row r="479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="0" t="s">
-        <v>1240</v>
+        <v>1274</v>
       </c>
       <c r="B479" s="0" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
     </row>
     <row r="480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="0" t="s">
-        <v>1241</v>
+        <v>1275</v>
       </c>
       <c r="B480" s="0" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
     </row>
     <row r="481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="0" t="s">
-        <v>1242</v>
+        <v>1276</v>
       </c>
       <c r="B481" s="0" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
     </row>
     <row r="482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A482" s="0" t="s">
-        <v>1243</v>
+        <v>1277</v>
       </c>
       <c r="B482" s="0" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
     </row>
     <row r="483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A483" s="0" t="s">
-        <v>1244</v>
+        <v>1278</v>
       </c>
       <c r="B483" s="0" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
     </row>
     <row r="484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A484" s="0" t="s">
-        <v>1245</v>
+        <v>1279</v>
       </c>
       <c r="B484" s="0" t="s">
-        <v>377</v>
+        <v>351</v>
       </c>
     </row>
     <row r="485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A485" s="0" t="s">
-        <v>1246</v>
+        <v>1280</v>
       </c>
       <c r="B485" s="0" t="s">
-        <v>359</v>
+        <v>342</v>
       </c>
     </row>
     <row r="486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A486" s="0" t="s">
-        <v>1247</v>
+        <v>1281</v>
       </c>
       <c r="B486" s="0" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
     </row>
     <row r="487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A487" s="0" t="s">
-        <v>1248</v>
+        <v>1282</v>
       </c>
       <c r="B487" s="0" t="s">
-        <v>366</v>
+        <v>342</v>
       </c>
     </row>
     <row r="488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A488" s="0" t="s">
-        <v>1249</v>
+        <v>1283</v>
       </c>
       <c r="B488" s="0" t="s">
-        <v>370</v>
+        <v>348</v>
       </c>
     </row>
     <row r="489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A489" s="0" t="s">
-        <v>1250</v>
+        <v>1284</v>
       </c>
       <c r="B489" s="0" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
     </row>
     <row r="490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A490" s="0" t="s">
-        <v>1251</v>
+        <v>1285</v>
       </c>
       <c r="B490" s="0" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
     </row>
     <row r="491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A491" s="0" t="s">
-        <v>1252</v>
+        <v>1286</v>
       </c>
       <c r="B491" s="0" t="s">
-        <v>361</v>
+        <v>344</v>
       </c>
     </row>
     <row r="492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A492" s="0" t="s">
-        <v>1253</v>
+        <v>1287</v>
       </c>
       <c r="B492" s="0" t="s">
-        <v>374</v>
+        <v>344</v>
       </c>
     </row>
     <row r="493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A493" s="0" t="s">
-        <v>1254</v>
+        <v>1288</v>
       </c>
       <c r="B493" s="0" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A494" s="0" t="s">
-        <v>1255</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="494" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A494" s="11" t="s">
+        <v>1289</v>
       </c>
       <c r="B494" s="0" t="s">
-        <v>374</v>
+        <v>346</v>
       </c>
     </row>
     <row r="495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A495" s="0" t="s">
-        <v>1256</v>
+        <v>1290</v>
       </c>
       <c r="B495" s="0" t="s">
-        <v>372</v>
+        <v>349</v>
       </c>
     </row>
     <row r="496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A496" s="0" t="s">
-        <v>1257</v>
+        <v>1291</v>
       </c>
       <c r="B496" s="0" t="s">
-        <v>375</v>
+        <v>349</v>
       </c>
     </row>
     <row r="497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A497" s="0" t="s">
-        <v>1258</v>
+        <v>1292</v>
       </c>
       <c r="B497" s="0" t="s">
-        <v>378</v>
+        <v>349</v>
       </c>
     </row>
     <row r="498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A498" s="0" t="s">
-        <v>1259</v>
+        <v>1293</v>
       </c>
       <c r="B498" s="0" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A499" s="0" t="s">
-        <v>1260</v>
+        <v>1294</v>
       </c>
       <c r="B499" s="0" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="0" t="s">
-        <v>1261</v>
+        <v>1295</v>
       </c>
       <c r="B500" s="0" t="s">
-        <v>522</v>
+        <v>352</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A501" s="0" t="s">
-        <v>1262</v>
+        <v>1296</v>
       </c>
       <c r="B501" s="0" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A502" s="0" t="s">
-        <v>1263</v>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="502" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A502" s="11" t="s">
+        <v>1297</v>
       </c>
       <c r="B502" s="0" t="s">
-        <v>524</v>
+        <v>352</v>
       </c>
     </row>
     <row r="503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A503" s="0" t="s">
-        <v>1264</v>
+        <v>1298</v>
       </c>
       <c r="B503" s="0" t="s">
-        <v>525</v>
+        <v>352</v>
       </c>
     </row>
     <row r="504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A504" s="0" t="s">
-        <v>1265</v>
+        <v>1299</v>
       </c>
       <c r="B504" s="0" t="s">
-        <v>526</v>
+        <v>352</v>
       </c>
     </row>
     <row r="505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A505" s="0" t="s">
-        <v>1266</v>
+        <v>1300</v>
       </c>
       <c r="B505" s="0" t="s">
-        <v>527</v>
+        <v>364</v>
       </c>
     </row>
     <row r="506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A506" s="0" t="s">
-        <v>1267</v>
+        <v>1301</v>
       </c>
       <c r="B506" s="0" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A507" s="0" t="s">
-        <v>1268</v>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="507" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A507" s="11" t="s">
+        <v>1302</v>
       </c>
       <c r="B507" s="0" t="s">
-        <v>529</v>
+        <v>364</v>
       </c>
     </row>
     <row r="508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A508" s="0" t="s">
-        <v>1269</v>
+        <v>1303</v>
       </c>
       <c r="B508" s="0" t="s">
-        <v>1270</v>
+        <v>364</v>
       </c>
     </row>
     <row r="509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A509" s="0" t="s">
-        <v>1271</v>
+        <v>1304</v>
       </c>
       <c r="B509" s="0" t="s">
-        <v>1270</v>
+        <v>364</v>
       </c>
     </row>
     <row r="510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A510" s="0" t="s">
-        <v>1272</v>
+        <v>1305</v>
       </c>
       <c r="B510" s="0" t="s">
-        <v>1270</v>
+        <v>364</v>
       </c>
     </row>
     <row r="511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A511" s="0" t="s">
-        <v>1273</v>
+        <v>1306</v>
       </c>
       <c r="B511" s="0" t="s">
-        <v>530</v>
+        <v>364</v>
       </c>
     </row>
     <row r="512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A512" s="0" t="s">
-        <v>1274</v>
+        <v>1307</v>
       </c>
       <c r="B512" s="0" t="s">
-        <v>531</v>
+        <v>364</v>
       </c>
     </row>
     <row r="513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A513" s="0" t="s">
-        <v>1275</v>
+        <v>1308</v>
       </c>
       <c r="B513" s="0" t="s">
-        <v>532</v>
+        <v>364</v>
       </c>
     </row>
     <row r="514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A514" s="0" t="s">
-        <v>1276</v>
+        <v>1309</v>
       </c>
       <c r="B514" s="0" t="s">
-        <v>533</v>
+        <v>364</v>
       </c>
     </row>
     <row r="515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A515" s="0" t="s">
-        <v>1277</v>
+        <v>1310</v>
       </c>
       <c r="B515" s="0" t="s">
-        <v>534</v>
+        <v>364</v>
       </c>
     </row>
     <row r="516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A516" s="0" t="s">
-        <v>1278</v>
+        <v>1311</v>
       </c>
       <c r="B516" s="0" t="s">
-        <v>535</v>
+        <v>364</v>
       </c>
     </row>
     <row r="517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A517" s="0" t="s">
-        <v>1279</v>
+        <v>1312</v>
       </c>
       <c r="B517" s="0" t="s">
-        <v>535</v>
+        <v>364</v>
       </c>
     </row>
     <row r="518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A518" s="0" t="s">
-        <v>1280</v>
+        <v>1313</v>
       </c>
       <c r="B518" s="0" t="s">
-        <v>536</v>
+        <v>358</v>
       </c>
     </row>
     <row r="519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A519" s="0" t="s">
-        <v>1281</v>
+        <v>1314</v>
       </c>
       <c r="B519" s="0" t="s">
-        <v>536</v>
+        <v>376</v>
       </c>
     </row>
     <row r="520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A520" s="0" t="s">
-        <v>1282</v>
+        <v>1315</v>
       </c>
       <c r="B520" s="0" t="s">
-        <v>537</v>
+        <v>377</v>
       </c>
     </row>
     <row r="521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A521" s="0" t="s">
-        <v>1283</v>
+        <v>1316</v>
       </c>
       <c r="B521" s="0" t="s">
-        <v>538</v>
+        <v>359</v>
       </c>
     </row>
     <row r="522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A522" s="0" t="s">
-        <v>1284</v>
+        <v>1317</v>
       </c>
       <c r="B522" s="0" t="s">
-        <v>539</v>
+        <v>365</v>
       </c>
     </row>
     <row r="523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A523" s="0" t="s">
-        <v>1285</v>
+        <v>1318</v>
       </c>
       <c r="B523" s="0" t="s">
-        <v>539</v>
+        <v>366</v>
       </c>
     </row>
     <row r="524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A524" s="0" t="s">
-        <v>1286</v>
+        <v>1319</v>
       </c>
       <c r="B524" s="0" t="s">
-        <v>540</v>
+        <v>370</v>
       </c>
     </row>
     <row r="525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A525" s="0" t="s">
-        <v>1287</v>
+        <v>1320</v>
       </c>
       <c r="B525" s="0" t="s">
-        <v>541</v>
+        <v>370</v>
       </c>
     </row>
     <row r="526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A526" s="0" t="s">
-        <v>1288</v>
+        <v>1321</v>
       </c>
       <c r="B526" s="0" t="s">
-        <v>542</v>
+        <v>361</v>
       </c>
     </row>
     <row r="527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A527" s="0" t="s">
-        <v>1289</v>
+        <v>1322</v>
       </c>
       <c r="B527" s="0" t="s">
-        <v>543</v>
+        <v>361</v>
       </c>
     </row>
     <row r="528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A528" s="0" t="s">
-        <v>1290</v>
+        <v>1323</v>
       </c>
       <c r="B528" s="0" t="s">
-        <v>544</v>
+        <v>374</v>
       </c>
     </row>
     <row r="529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A529" s="0" t="s">
-        <v>1291</v>
+        <v>1324</v>
       </c>
       <c r="B529" s="0" t="s">
-        <v>545</v>
+        <v>374</v>
       </c>
     </row>
     <row r="530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A530" s="0" t="s">
-        <v>1292</v>
+        <v>1325</v>
       </c>
       <c r="B530" s="0" t="s">
-        <v>546</v>
+        <v>374</v>
       </c>
     </row>
     <row r="531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A531" s="0" t="s">
-        <v>1293</v>
+        <v>1326</v>
       </c>
       <c r="B531" s="0" t="s">
-        <v>547</v>
+        <v>372</v>
       </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
-        <v>1294</v>
+        <v>1327</v>
       </c>
       <c r="B532" s="0" t="s">
-        <v>548</v>
+        <v>375</v>
       </c>
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="s">
-        <v>1295</v>
+        <v>1328</v>
       </c>
       <c r="B533" s="0" t="s">
-        <v>549</v>
+        <v>378</v>
       </c>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
-        <v>1296</v>
+        <v>1329</v>
       </c>
       <c r="B534" s="0" t="s">
-        <v>550</v>
+        <v>360</v>
       </c>
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
-        <v>1297</v>
+        <v>1330</v>
       </c>
       <c r="B535" s="0" t="s">
-        <v>551</v>
+        <v>360</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
-        <v>1298</v>
+        <v>1331</v>
       </c>
       <c r="B536" s="0" t="s">
-        <v>551</v>
+        <v>522</v>
       </c>
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
-        <v>1299</v>
+        <v>1332</v>
       </c>
       <c r="B537" s="0" t="s">
-        <v>552</v>
+        <v>523</v>
       </c>
     </row>
     <row r="538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A538" s="0" t="s">
-        <v>1300</v>
+        <v>1333</v>
       </c>
       <c r="B538" s="0" t="s">
-        <v>291</v>
+        <v>524</v>
       </c>
     </row>
     <row r="539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A539" s="0" t="s">
-        <v>1301</v>
+        <v>1334</v>
       </c>
       <c r="B539" s="0" t="s">
-        <v>291</v>
+        <v>525</v>
       </c>
     </row>
     <row r="540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A540" s="0" t="s">
-        <v>1302</v>
+        <v>1335</v>
       </c>
       <c r="B540" s="0" t="s">
-        <v>291</v>
+        <v>526</v>
       </c>
     </row>
     <row r="541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A541" s="0" t="s">
-        <v>1303</v>
+        <v>1336</v>
       </c>
       <c r="B541" s="0" t="s">
-        <v>291</v>
+        <v>527</v>
       </c>
     </row>
     <row r="542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A542" s="0" t="s">
-        <v>1304</v>
+        <v>1337</v>
       </c>
       <c r="B542" s="0" t="s">
-        <v>291</v>
+        <v>528</v>
       </c>
     </row>
     <row r="543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A543" s="0" t="s">
-        <v>1305</v>
+        <v>1338</v>
       </c>
       <c r="B543" s="0" t="s">
-        <v>291</v>
+        <v>529</v>
       </c>
     </row>
     <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A544" s="0" t="s">
-        <v>1306</v>
+        <v>1339</v>
       </c>
       <c r="B544" s="0" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="545" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A545" s="11" t="s">
-        <v>1307</v>
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A545" s="0" t="s">
+        <v>1341</v>
       </c>
       <c r="B545" s="0" t="s">
-        <v>357</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A546" s="0" t="s">
-        <v>1308</v>
+        <v>1342</v>
       </c>
       <c r="B546" s="0" t="s">
-        <v>357</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A547" s="0" t="s">
-        <v>1309</v>
+        <v>1343</v>
       </c>
       <c r="B547" s="0" t="s">
-        <v>357</v>
+        <v>530</v>
       </c>
     </row>
     <row r="548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A548" s="0" t="s">
-        <v>1310</v>
+        <v>1344</v>
       </c>
       <c r="B548" s="0" t="s">
-        <v>357</v>
+        <v>531</v>
       </c>
     </row>
     <row r="549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A549" s="0" t="s">
-        <v>1311</v>
+        <v>1345</v>
       </c>
       <c r="B549" s="0" t="s">
-        <v>356</v>
+        <v>532</v>
       </c>
     </row>
     <row r="550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A550" s="0" t="s">
-        <v>1312</v>
+        <v>1346</v>
       </c>
       <c r="B550" s="0" t="s">
-        <v>369</v>
+        <v>533</v>
       </c>
     </row>
     <row r="551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A551" s="0" t="s">
-        <v>1313</v>
+        <v>1347</v>
       </c>
       <c r="B551" s="0" t="s">
-        <v>368</v>
+        <v>534</v>
       </c>
     </row>
     <row r="552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A552" s="0" t="s">
-        <v>1314</v>
+        <v>1348</v>
       </c>
       <c r="B552" s="0" t="s">
-        <v>373</v>
+        <v>535</v>
       </c>
     </row>
     <row r="553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A553" s="0" t="s">
-        <v>1315</v>
+        <v>1349</v>
       </c>
       <c r="B553" s="0" t="s">
-        <v>354</v>
+        <v>535</v>
       </c>
     </row>
     <row r="554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A554" s="0" t="s">
-        <v>1316</v>
+        <v>1350</v>
       </c>
       <c r="B554" s="0" t="s">
-        <v>354</v>
+        <v>536</v>
       </c>
     </row>
     <row r="555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A555" s="0" t="s">
-        <v>1317</v>
+        <v>1351</v>
       </c>
       <c r="B555" s="0" t="s">
-        <v>354</v>
+        <v>536</v>
       </c>
     </row>
     <row r="556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A556" s="0" t="s">
-        <v>1318</v>
+        <v>1352</v>
       </c>
       <c r="B556" s="0" t="s">
-        <v>354</v>
+        <v>537</v>
       </c>
     </row>
     <row r="557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A557" s="0" t="s">
-        <v>1319</v>
+        <v>1353</v>
       </c>
       <c r="B557" s="0" t="s">
-        <v>354</v>
+        <v>538</v>
       </c>
     </row>
     <row r="558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A558" s="0" t="s">
-        <v>1320</v>
+        <v>1354</v>
       </c>
       <c r="B558" s="0" t="s">
-        <v>371</v>
+        <v>539</v>
       </c>
     </row>
     <row r="559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A559" s="0" t="s">
-        <v>1321</v>
+        <v>1355</v>
       </c>
       <c r="B559" s="0" t="s">
-        <v>371</v>
+        <v>539</v>
       </c>
     </row>
     <row r="560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A560" s="0" t="s">
-        <v>1322</v>
+        <v>1356</v>
       </c>
       <c r="B560" s="0" t="s">
-        <v>367</v>
+        <v>540</v>
       </c>
     </row>
     <row r="561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A561" s="0" t="s">
-        <v>1323</v>
+        <v>1357</v>
       </c>
       <c r="B561" s="0" t="s">
-        <v>367</v>
+        <v>541</v>
       </c>
     </row>
     <row r="562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A562" s="0" t="s">
-        <v>1324</v>
+        <v>1358</v>
       </c>
       <c r="B562" s="0" t="s">
-        <v>367</v>
+        <v>542</v>
       </c>
     </row>
     <row r="563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A563" s="0" t="s">
-        <v>1325</v>
+        <v>1359</v>
       </c>
       <c r="B563" s="0" t="s">
-        <v>379</v>
+        <v>543</v>
       </c>
     </row>
     <row r="564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A564" s="0" t="s">
-        <v>1326</v>
+        <v>1360</v>
       </c>
       <c r="B564" s="0" t="s">
-        <v>390</v>
+        <v>544</v>
       </c>
     </row>
     <row r="565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A565" s="0" t="s">
-        <v>1327</v>
+        <v>1361</v>
       </c>
       <c r="B565" s="0" t="s">
-        <v>389</v>
+        <v>545</v>
       </c>
     </row>
     <row r="566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A566" s="0" t="s">
-        <v>1328</v>
+        <v>1362</v>
       </c>
       <c r="B566" s="0" t="s">
-        <v>386</v>
+        <v>546</v>
       </c>
     </row>
     <row r="567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="0" t="s">
-        <v>1329</v>
+        <v>1363</v>
       </c>
       <c r="B567" s="0" t="s">
-        <v>386</v>
+        <v>547</v>
       </c>
     </row>
     <row r="568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A568" s="0" t="s">
-        <v>1330</v>
+        <v>1364</v>
       </c>
       <c r="B568" s="0" t="s">
-        <v>386</v>
+        <v>548</v>
       </c>
     </row>
     <row r="569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A569" s="0" t="s">
-        <v>1331</v>
+        <v>1365</v>
       </c>
       <c r="B569" s="0" t="s">
-        <v>386</v>
+        <v>549</v>
       </c>
     </row>
     <row r="570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A570" s="0" t="s">
-        <v>1332</v>
+        <v>1366</v>
       </c>
       <c r="B570" s="0" t="s">
-        <v>386</v>
+        <v>550</v>
       </c>
     </row>
     <row r="571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="0" t="s">
-        <v>1333</v>
+        <v>1367</v>
       </c>
       <c r="B571" s="0" t="s">
-        <v>212</v>
+        <v>551</v>
       </c>
     </row>
     <row r="572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="0" t="s">
-        <v>1334</v>
+        <v>1368</v>
       </c>
       <c r="B572" s="0" t="s">
-        <v>212</v>
+        <v>551</v>
       </c>
     </row>
     <row r="573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A573" s="0" t="s">
-        <v>1335</v>
+        <v>1369</v>
       </c>
       <c r="B573" s="0" t="s">
-        <v>212</v>
+        <v>552</v>
       </c>
     </row>
     <row r="574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="0" t="s">
-        <v>1336</v>
+        <v>1370</v>
       </c>
       <c r="B574" s="0" t="s">
-        <v>380</v>
+        <v>291</v>
       </c>
     </row>
     <row r="575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A575" s="0" t="s">
-        <v>1337</v>
+        <v>1371</v>
       </c>
       <c r="B575" s="0" t="s">
-        <v>380</v>
+        <v>291</v>
       </c>
     </row>
     <row r="576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A576" s="0" t="s">
-        <v>1338</v>
+        <v>1372</v>
       </c>
       <c r="B576" s="0" t="s">
-        <v>391</v>
+        <v>291</v>
       </c>
     </row>
     <row r="577" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="0" t="s">
-        <v>1339</v>
+        <v>1373</v>
       </c>
       <c r="B577" s="0" t="s">
-        <v>391</v>
+        <v>291</v>
       </c>
     </row>
     <row r="578" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="0" t="s">
-        <v>1340</v>
+        <v>1374</v>
       </c>
       <c r="B578" s="0" t="s">
-        <v>383</v>
+        <v>291</v>
       </c>
     </row>
     <row r="579" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="0" t="s">
-        <v>1341</v>
+        <v>1375</v>
       </c>
       <c r="B579" s="0" t="s">
-        <v>381</v>
+        <v>291</v>
       </c>
     </row>
     <row r="580" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A580" s="0" t="s">
-        <v>1342</v>
+        <v>1376</v>
       </c>
       <c r="B580" s="0" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="581" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="0" t="s">
-        <v>1343</v>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="581" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A581" s="11" t="s">
+        <v>1377</v>
       </c>
       <c r="B581" s="0" t="s">
-        <v>385</v>
+        <v>357</v>
       </c>
     </row>
     <row r="582" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="0" t="s">
-        <v>1344</v>
+        <v>1378</v>
       </c>
       <c r="B582" s="0" t="s">
-        <v>485</v>
+        <v>357</v>
       </c>
     </row>
     <row r="583" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="0" t="s">
-        <v>1345</v>
+        <v>1379</v>
       </c>
       <c r="B583" s="0" t="s">
-        <v>370</v>
+        <v>357</v>
       </c>
     </row>
     <row r="584" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="0" t="s">
-        <v>1346</v>
+        <v>1380</v>
       </c>
       <c r="B584" s="0" t="s">
-        <v>387</v>
+        <v>357</v>
       </c>
     </row>
     <row r="585" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="0" t="s">
-        <v>1347</v>
+        <v>1381</v>
       </c>
       <c r="B585" s="0" t="s">
-        <v>387</v>
+        <v>356</v>
       </c>
     </row>
     <row r="586" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A586" s="0" t="s">
-        <v>1348</v>
+        <v>1382</v>
       </c>
       <c r="B586" s="0" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
     </row>
     <row r="587" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A587" s="0" t="s">
-        <v>1349</v>
+        <v>1383</v>
       </c>
       <c r="B587" s="0" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
     </row>
     <row r="588" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="0" t="s">
-        <v>1350</v>
+        <v>1384</v>
       </c>
       <c r="B588" s="0" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
     </row>
     <row r="589" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="0" t="s">
-        <v>1351</v>
+        <v>1385</v>
       </c>
       <c r="B589" s="0" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
     </row>
     <row r="590" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="0" t="s">
-        <v>1352</v>
+        <v>1386</v>
       </c>
       <c r="B590" s="0" t="s">
-        <v>405</v>
+        <v>354</v>
       </c>
     </row>
     <row r="591" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="0" t="s">
-        <v>1353</v>
+        <v>1387</v>
       </c>
       <c r="B591" s="0" t="s">
-        <v>405</v>
+        <v>354</v>
       </c>
     </row>
     <row r="592" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="0" t="s">
-        <v>1354</v>
+        <v>1388</v>
       </c>
       <c r="B592" s="0" t="s">
-        <v>405</v>
+        <v>354</v>
       </c>
     </row>
     <row r="593" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="0" t="s">
-        <v>1355</v>
+        <v>1389</v>
       </c>
       <c r="B593" s="0" t="s">
-        <v>405</v>
+        <v>354</v>
       </c>
     </row>
     <row r="594" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="0" t="s">
-        <v>1356</v>
+        <v>1390</v>
       </c>
       <c r="B594" s="0" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
     </row>
     <row r="595" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A595" s="0" t="s">
-        <v>1357</v>
+        <v>1391</v>
       </c>
       <c r="B595" s="0" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
     </row>
     <row r="596" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="0" t="s">
-        <v>1358</v>
+        <v>1392</v>
       </c>
       <c r="B596" s="0" t="s">
-        <v>405</v>
+        <v>367</v>
       </c>
     </row>
     <row r="597" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="0" t="s">
-        <v>1359</v>
+        <v>1393</v>
       </c>
       <c r="B597" s="0" t="s">
-        <v>405</v>
+        <v>367</v>
       </c>
     </row>
     <row r="598" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="0" t="s">
-        <v>1360</v>
+        <v>1394</v>
       </c>
       <c r="B598" s="0" t="s">
-        <v>405</v>
+        <v>367</v>
       </c>
     </row>
     <row r="599" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="0" t="s">
-        <v>1361</v>
+        <v>1395</v>
       </c>
       <c r="B599" s="0" t="s">
-        <v>293</v>
+        <v>379</v>
       </c>
     </row>
     <row r="600" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="0" t="s">
-        <v>1362</v>
+        <v>1396</v>
       </c>
       <c r="B600" s="0" t="s">
-        <v>471</v>
+        <v>390</v>
       </c>
     </row>
     <row r="601" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="0" t="s">
-        <v>1363</v>
+        <v>1397</v>
       </c>
       <c r="B601" s="0" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="602" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A602" s="0" t="s">
-        <v>1364</v>
+        <v>1398</v>
       </c>
       <c r="B602" s="0" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
     </row>
     <row r="603" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="0" t="s">
-        <v>1365</v>
+        <v>1399</v>
       </c>
       <c r="B603" s="0" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
     </row>
     <row r="604" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="0" t="s">
-        <v>1366</v>
+        <v>1400</v>
       </c>
       <c r="B604" s="0" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
     </row>
     <row r="605" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="0" t="s">
-        <v>1367</v>
+        <v>1401</v>
       </c>
       <c r="B605" s="0" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
     </row>
     <row r="606" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="0" t="s">
-        <v>1368</v>
+        <v>1402</v>
       </c>
       <c r="B606" s="0" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
     </row>
     <row r="607" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="0" t="s">
-        <v>1369</v>
+        <v>1403</v>
       </c>
       <c r="B607" s="0" t="s">
-        <v>397</v>
+        <v>212</v>
       </c>
     </row>
     <row r="608" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="0" t="s">
-        <v>1370</v>
+        <v>1404</v>
       </c>
       <c r="B608" s="0" t="s">
-        <v>397</v>
+        <v>212</v>
       </c>
     </row>
     <row r="609" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="0" t="s">
-        <v>1371</v>
+        <v>1405</v>
       </c>
       <c r="B609" s="0" t="s">
-        <v>397</v>
+        <v>212</v>
       </c>
     </row>
     <row r="610" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="0" t="s">
-        <v>1372</v>
+        <v>1406</v>
       </c>
       <c r="B610" s="0" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
     </row>
     <row r="611" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="0" t="s">
-        <v>1373</v>
+        <v>1407</v>
       </c>
       <c r="B611" s="0" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
     </row>
     <row r="612" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="0" t="s">
-        <v>1374</v>
+        <v>1408</v>
       </c>
       <c r="B612" s="0" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="613" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="0" t="s">
-        <v>1375</v>
+        <v>1409</v>
       </c>
       <c r="B613" s="0" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="614" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="0" t="s">
-        <v>1376</v>
+        <v>1410</v>
       </c>
       <c r="B614" s="0" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
     </row>
     <row r="615" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="0" t="s">
-        <v>1377</v>
+        <v>1411</v>
       </c>
       <c r="B615" s="0" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
     </row>
     <row r="616" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="0" t="s">
-        <v>1378</v>
+        <v>1412</v>
       </c>
       <c r="B616" s="0" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
     </row>
     <row r="617" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="0" t="s">
-        <v>1379</v>
+        <v>1413</v>
       </c>
       <c r="B617" s="0" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
     </row>
     <row r="618" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="0" t="s">
-        <v>1380</v>
+        <v>1414</v>
       </c>
       <c r="B618" s="0" t="s">
-        <v>403</v>
+        <v>485</v>
       </c>
     </row>
     <row r="619" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="0" t="s">
-        <v>1381</v>
+        <v>1415</v>
       </c>
       <c r="B619" s="0" t="s">
-        <v>401</v>
+        <v>370</v>
       </c>
     </row>
     <row r="620" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="0" t="s">
-        <v>1382</v>
+        <v>1416</v>
       </c>
       <c r="B620" s="0" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
     </row>
     <row r="621" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="0" t="s">
-        <v>1383</v>
+        <v>1417</v>
       </c>
       <c r="B621" s="0" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
     </row>
     <row r="622" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="0" t="s">
-        <v>1384</v>
+        <v>1418</v>
       </c>
       <c r="B622" s="0" t="s">
-        <v>408</v>
+        <v>387</v>
       </c>
     </row>
     <row r="623" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="0" t="s">
-        <v>1385</v>
+        <v>1419</v>
       </c>
       <c r="B623" s="0" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
     </row>
     <row r="624" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="0" t="s">
-        <v>1386</v>
+        <v>1420</v>
       </c>
       <c r="B624" s="0" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
     </row>
     <row r="625" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="0" t="s">
-        <v>1387</v>
+        <v>1421</v>
       </c>
       <c r="B625" s="0" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="626" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="0" t="s">
-        <v>1388</v>
+        <v>1422</v>
       </c>
       <c r="B626" s="0" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="627" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="0" t="s">
-        <v>1389</v>
+        <v>1423</v>
       </c>
       <c r="B627" s="0" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="628" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="0" t="s">
-        <v>1390</v>
+        <v>1424</v>
       </c>
       <c r="B628" s="0" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="629" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="0" t="s">
-        <v>1391</v>
+        <v>1425</v>
       </c>
       <c r="B629" s="0" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="630" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="0" t="s">
-        <v>1392</v>
+        <v>1426</v>
       </c>
       <c r="B630" s="0" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="631" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="0" t="s">
-        <v>1393</v>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="631" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="11" t="s">
+        <v>1427</v>
       </c>
       <c r="B631" s="0" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="632" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="0" t="s">
-        <v>1394</v>
+        <v>1428</v>
       </c>
       <c r="B632" s="0" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="633" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="0" t="s">
-        <v>1395</v>
+        <v>1429</v>
       </c>
       <c r="B633" s="0" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="634" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="0" t="s">
-        <v>1396</v>
+        <v>1430</v>
       </c>
       <c r="B634" s="0" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
     </row>
     <row r="635" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="0" t="s">
-        <v>1397</v>
+        <v>1431</v>
       </c>
       <c r="B635" s="0" t="s">
-        <v>633</v>
+        <v>405</v>
       </c>
     </row>
     <row r="636" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="0" t="s">
-        <v>1398</v>
+        <v>1432</v>
       </c>
       <c r="B636" s="0" t="s">
-        <v>633</v>
+        <v>293</v>
       </c>
     </row>
     <row r="637" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="0" t="s">
-        <v>1399</v>
+        <v>1433</v>
       </c>
       <c r="B637" s="0" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
     </row>
     <row r="638" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="0" t="s">
-        <v>1400</v>
+        <v>1434</v>
       </c>
       <c r="B638" s="0" t="s">
-        <v>419</v>
+        <v>394</v>
       </c>
     </row>
     <row r="639" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="0" t="s">
-        <v>1401</v>
+        <v>1435</v>
       </c>
       <c r="B639" s="0" t="s">
-        <v>630</v>
+        <v>399</v>
       </c>
     </row>
     <row r="640" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="0" t="s">
-        <v>1402</v>
+        <v>1436</v>
       </c>
       <c r="B640" s="0" t="s">
-        <v>636</v>
+        <v>399</v>
       </c>
     </row>
     <row r="641" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="0" t="s">
-        <v>1403</v>
+        <v>1437</v>
       </c>
       <c r="B641" s="0" t="s">
-        <v>636</v>
+        <v>404</v>
       </c>
     </row>
     <row r="642" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="0" t="s">
-        <v>1404</v>
+        <v>1438</v>
       </c>
       <c r="B642" s="0" t="s">
-        <v>632</v>
+        <v>396</v>
       </c>
     </row>
     <row r="643" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="0" t="s">
-        <v>1405</v>
+        <v>1439</v>
       </c>
       <c r="B643" s="0" t="s">
-        <v>336</v>
+        <v>397</v>
       </c>
     </row>
     <row r="644" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="0" t="s">
-        <v>1406</v>
+        <v>1440</v>
       </c>
       <c r="B644" s="0" t="s">
-        <v>336</v>
+        <v>397</v>
       </c>
     </row>
     <row r="645" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="0" t="s">
-        <v>1407</v>
+        <v>1441</v>
       </c>
       <c r="B645" s="0" t="s">
-        <v>336</v>
+        <v>397</v>
       </c>
     </row>
     <row r="646" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="0" t="s">
-        <v>1408</v>
+        <v>1442</v>
       </c>
       <c r="B646" s="0" t="s">
-        <v>336</v>
+        <v>397</v>
       </c>
     </row>
     <row r="647" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="0" t="s">
-        <v>1409</v>
+        <v>1443</v>
       </c>
       <c r="B647" s="0" t="s">
-        <v>345</v>
+        <v>397</v>
       </c>
     </row>
     <row r="648" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="0" t="s">
-        <v>1410</v>
+        <v>1444</v>
       </c>
       <c r="B648" s="0" t="s">
-        <v>345</v>
+        <v>397</v>
       </c>
     </row>
     <row r="649" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="0" t="s">
-        <v>1411</v>
+        <v>1445</v>
       </c>
       <c r="B649" s="0" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
     </row>
     <row r="650" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="0" t="s">
-        <v>1412</v>
+        <v>1446</v>
       </c>
       <c r="B650" s="0" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
     </row>
     <row r="651" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="0" t="s">
-        <v>1413</v>
+        <v>1447</v>
       </c>
       <c r="B651" s="0" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
     </row>
     <row r="652" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="0" t="s">
-        <v>1414</v>
+        <v>1448</v>
       </c>
       <c r="B652" s="0" t="s">
-        <v>426</v>
+        <v>400</v>
       </c>
     </row>
     <row r="653" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="0" t="s">
-        <v>1415</v>
+        <v>1449</v>
       </c>
       <c r="B653" s="0" t="s">
-        <v>465</v>
+        <v>400</v>
       </c>
     </row>
     <row r="654" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="0" t="s">
-        <v>1416</v>
+        <v>1450</v>
       </c>
       <c r="B654" s="0" t="s">
-        <v>465</v>
+        <v>403</v>
       </c>
     </row>
     <row r="655" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="0" t="s">
-        <v>1417</v>
+        <v>1451</v>
       </c>
       <c r="B655" s="0" t="s">
-        <v>465</v>
+        <v>403</v>
       </c>
     </row>
     <row r="656" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="0" t="s">
-        <v>1418</v>
+        <v>1452</v>
       </c>
       <c r="B656" s="0" t="s">
-        <v>465</v>
+        <v>401</v>
       </c>
     </row>
     <row r="657" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="0" t="s">
-        <v>1419</v>
+        <v>1453</v>
       </c>
       <c r="B657" s="0" t="s">
-        <v>465</v>
+        <v>401</v>
       </c>
     </row>
     <row r="658" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="0" t="s">
-        <v>1420</v>
+        <v>1454</v>
       </c>
       <c r="B658" s="0" t="s">
-        <v>465</v>
+        <v>407</v>
       </c>
     </row>
     <row r="659" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="0" t="s">
-        <v>1421</v>
+        <v>1455</v>
       </c>
       <c r="B659" s="0" t="s">
-        <v>474</v>
+        <v>408</v>
       </c>
     </row>
     <row r="660" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="0" t="s">
-        <v>1422</v>
+        <v>1456</v>
       </c>
       <c r="B660" s="0" t="s">
-        <v>474</v>
+        <v>408</v>
       </c>
     </row>
     <row r="661" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="0" t="s">
-        <v>1423</v>
+        <v>1457</v>
       </c>
       <c r="B661" s="0" t="s">
-        <v>474</v>
+        <v>408</v>
       </c>
     </row>
     <row r="662" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="0" t="s">
-        <v>1424</v>
+        <v>1458</v>
       </c>
       <c r="B662" s="0" t="s">
-        <v>217</v>
+        <v>408</v>
       </c>
     </row>
     <row r="663" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A663" s="0" t="s">
-        <v>1425</v>
+        <v>1459</v>
       </c>
       <c r="B663" s="0" t="s">
-        <v>217</v>
+        <v>409</v>
       </c>
     </row>
     <row r="664" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A664" s="0" t="s">
-        <v>1426</v>
+        <v>1460</v>
       </c>
       <c r="B664" s="0" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
     </row>
     <row r="665" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A665" s="0" t="s">
-        <v>1427</v>
+        <v>1461</v>
       </c>
       <c r="B665" s="0" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="666" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="0" t="s">
-        <v>1428</v>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="666" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A666" s="11" t="s">
+        <v>1462</v>
       </c>
       <c r="B666" s="0" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="667" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="0" t="s">
-        <v>1429</v>
+        <v>1463</v>
       </c>
       <c r="B667" s="0" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="668" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="0" t="s">
-        <v>1430</v>
+        <v>1464</v>
       </c>
       <c r="B668" s="0" t="s">
-        <v>431</v>
+        <v>410</v>
       </c>
     </row>
     <row r="669" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="0" t="s">
-        <v>1431</v>
+        <v>1465</v>
       </c>
       <c r="B669" s="0" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="670" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A670" s="0" t="s">
-        <v>1432</v>
+        <v>1466</v>
       </c>
       <c r="B670" s="0" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="671" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A671" s="0" t="s">
-        <v>1433</v>
+        <v>1467</v>
       </c>
       <c r="B671" s="0" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="672" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A672" s="0" t="s">
-        <v>1434</v>
+        <v>1468</v>
       </c>
       <c r="B672" s="0" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="673" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A673" s="0" t="s">
-        <v>1435</v>
+        <v>1469</v>
       </c>
       <c r="B673" s="0" t="s">
-        <v>427</v>
+        <v>633</v>
       </c>
     </row>
     <row r="674" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A674" s="0" t="s">
-        <v>1436</v>
+        <v>1470</v>
       </c>
       <c r="B674" s="0" t="s">
-        <v>427</v>
+        <v>633</v>
       </c>
     </row>
     <row r="675" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="0" t="s">
-        <v>1437</v>
+        <v>1471</v>
       </c>
       <c r="B675" s="0" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="676" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A676" s="0" t="s">
-        <v>1438</v>
+        <v>1472</v>
       </c>
       <c r="B676" s="0" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
     </row>
     <row r="677" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A677" s="0" t="s">
-        <v>1439</v>
+        <v>1473</v>
       </c>
       <c r="B677" s="0" t="s">
-        <v>428</v>
+        <v>630</v>
       </c>
     </row>
     <row r="678" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A678" s="0" t="s">
-        <v>1440</v>
+        <v>1474</v>
       </c>
       <c r="B678" s="0" t="s">
-        <v>428</v>
+        <v>636</v>
       </c>
     </row>
     <row r="679" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="0" t="s">
-        <v>1441</v>
+        <v>1475</v>
       </c>
       <c r="B679" s="0" t="s">
-        <v>428</v>
+        <v>636</v>
       </c>
     </row>
     <row r="680" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="0" t="s">
-        <v>1442</v>
+        <v>1476</v>
       </c>
       <c r="B680" s="0" t="s">
-        <v>428</v>
+        <v>632</v>
       </c>
     </row>
     <row r="681" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="0" t="s">
-        <v>1443</v>
+        <v>1477</v>
       </c>
       <c r="B681" s="0" t="s">
-        <v>428</v>
+        <v>336</v>
       </c>
     </row>
     <row r="682" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="0" t="s">
-        <v>1444</v>
+        <v>1478</v>
       </c>
       <c r="B682" s="0" t="s">
-        <v>439</v>
+        <v>336</v>
       </c>
     </row>
     <row r="683" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="0" t="s">
-        <v>1445</v>
+        <v>1479</v>
       </c>
       <c r="B683" s="0" t="s">
-        <v>418</v>
+        <v>336</v>
       </c>
     </row>
     <row r="684" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="0" t="s">
-        <v>1446</v>
+        <v>1480</v>
       </c>
       <c r="B684" s="0" t="s">
-        <v>418</v>
+        <v>336</v>
       </c>
     </row>
     <row r="685" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="0" t="s">
-        <v>1447</v>
+        <v>1481</v>
       </c>
       <c r="B685" s="0" t="s">
-        <v>421</v>
+        <v>345</v>
       </c>
     </row>
     <row r="686" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A686" s="0" t="s">
-        <v>1448</v>
+        <v>1482</v>
       </c>
       <c r="B686" s="0" t="s">
-        <v>421</v>
+        <v>345</v>
       </c>
     </row>
     <row r="687" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A687" s="0" t="s">
-        <v>1449</v>
+        <v>1483</v>
       </c>
       <c r="B687" s="0" t="s">
-        <v>417</v>
+        <v>353</v>
       </c>
     </row>
     <row r="688" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="0" t="s">
-        <v>1450</v>
+        <v>1484</v>
       </c>
       <c r="B688" s="0" t="s">
-        <v>438</v>
+        <v>353</v>
       </c>
     </row>
     <row r="689" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A689" s="0" t="s">
-        <v>1451</v>
+        <v>1485</v>
       </c>
       <c r="B689" s="0" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
     </row>
     <row r="690" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A690" s="0" t="s">
-        <v>1452</v>
+        <v>1486</v>
       </c>
       <c r="B690" s="0" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="691" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A691" s="0" t="s">
-        <v>1453</v>
+        <v>1487</v>
       </c>
       <c r="B691" s="0" t="s">
-        <v>434</v>
+        <v>465</v>
       </c>
     </row>
     <row r="692" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="0" t="s">
-        <v>1454</v>
+        <v>1488</v>
       </c>
       <c r="B692" s="0" t="s">
-        <v>434</v>
+        <v>465</v>
       </c>
     </row>
     <row r="693" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A693" s="0" t="s">
-        <v>1455</v>
+        <v>1489</v>
       </c>
       <c r="B693" s="0" t="s">
-        <v>434</v>
+        <v>465</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A694" s="0" t="s">
-        <v>1456</v>
+        <v>1490</v>
       </c>
       <c r="B694" s="0" t="s">
-        <v>434</v>
+        <v>465</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A695" s="0" t="s">
-        <v>1457</v>
+        <v>1491</v>
       </c>
       <c r="B695" s="0" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A696" s="0" t="s">
-        <v>1458</v>
+        <v>1492</v>
       </c>
       <c r="B696" s="0" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A697" s="0" t="s">
-        <v>1459</v>
+        <v>1493</v>
       </c>
       <c r="B697" s="0" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A698" s="0" t="s">
-        <v>1460</v>
+        <v>1494</v>
       </c>
       <c r="B698" s="0" t="s">
-        <v>420</v>
+        <v>474</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A699" s="0" t="s">
-        <v>1461</v>
+        <v>1495</v>
       </c>
       <c r="B699" s="0" t="s">
-        <v>424</v>
+        <v>474</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A700" s="0" t="s">
-        <v>1462</v>
+        <v>1496</v>
       </c>
       <c r="B700" s="0" t="s">
-        <v>635</v>
+        <v>217</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A701" s="0" t="s">
-        <v>1463</v>
+        <v>1497</v>
       </c>
       <c r="B701" s="0" t="s">
-        <v>478</v>
+        <v>217</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A702" s="0" t="s">
-        <v>1464</v>
+        <v>1498</v>
       </c>
       <c r="B702" s="0" t="s">
-        <v>478</v>
+        <v>423</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A703" s="0" t="s">
-        <v>1465</v>
+        <v>1499</v>
       </c>
       <c r="B703" s="0" t="s">
-        <v>478</v>
+        <v>431</v>
       </c>
     </row>
     <row r="704" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A704" s="0" t="s">
-        <v>1466</v>
+        <v>1500</v>
       </c>
       <c r="B704" s="0" t="s">
-        <v>478</v>
+        <v>431</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A705" s="0" t="s">
-        <v>1467</v>
+        <v>1501</v>
       </c>
       <c r="B705" s="0" t="s">
-        <v>478</v>
+        <v>431</v>
       </c>
     </row>
     <row r="706" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A706" s="0" t="s">
-        <v>1468</v>
+        <v>1502</v>
       </c>
       <c r="B706" s="0" t="s">
-        <v>478</v>
+        <v>431</v>
       </c>
     </row>
     <row r="707" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A707" s="0" t="s">
-        <v>1469</v>
+        <v>1503</v>
       </c>
       <c r="B707" s="0" t="s">
-        <v>479</v>
+        <v>413</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A708" s="0" t="s">
-        <v>1470</v>
+        <v>1504</v>
       </c>
       <c r="B708" s="0" t="s">
-        <v>637</v>
+        <v>413</v>
       </c>
     </row>
     <row r="709" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A709" s="0" t="s">
-        <v>1471</v>
+        <v>1505</v>
       </c>
       <c r="B709" s="0" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A710" s="0" t="s">
-        <v>1472</v>
+        <v>1506</v>
       </c>
       <c r="B710" s="0" t="s">
-        <v>282</v>
+        <v>416</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A711" s="0" t="s">
-        <v>1473</v>
+        <v>1507</v>
       </c>
       <c r="B711" s="0" t="s">
-        <v>282</v>
+        <v>427</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A712" s="0" t="s">
-        <v>1474</v>
+        <v>1508</v>
       </c>
       <c r="B712" s="0" t="s">
-        <v>282</v>
+        <v>427</v>
       </c>
     </row>
     <row r="713" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A713" s="0" t="s">
-        <v>1475</v>
+        <v>1509</v>
       </c>
       <c r="B713" s="0" t="s">
-        <v>282</v>
+        <v>428</v>
       </c>
     </row>
     <row r="714" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A714" s="0" t="s">
-        <v>1476</v>
+        <v>1510</v>
       </c>
       <c r="B714" s="0" t="s">
-        <v>483</v>
+        <v>428</v>
       </c>
     </row>
     <row r="715" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A715" s="0" t="s">
-        <v>1477</v>
+        <v>1511</v>
       </c>
       <c r="B715" s="0" t="s">
-        <v>347</v>
+        <v>428</v>
       </c>
     </row>
     <row r="716" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A716" s="0" t="s">
-        <v>1478</v>
+        <v>1512</v>
       </c>
       <c r="B716" s="0" t="s">
-        <v>347</v>
+        <v>428</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A717" s="0" t="s">
-        <v>1479</v>
+        <v>1513</v>
       </c>
       <c r="B717" s="0" t="s">
-        <v>415</v>
+        <v>428</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A718" s="0" t="s">
-        <v>1480</v>
+        <v>1514</v>
       </c>
       <c r="B718" s="0" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A719" s="0" t="s">
-        <v>1481</v>
+        <v>1515</v>
       </c>
       <c r="B719" s="0" t="s">
-        <v>1482</v>
+        <v>428</v>
       </c>
     </row>
     <row r="720" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A720" s="0" t="s">
-        <v>1483</v>
+        <v>1516</v>
       </c>
       <c r="B720" s="0" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A721" s="0" t="s">
-        <v>1484</v>
+        <v>1517</v>
       </c>
       <c r="B721" s="0" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="722" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A722" s="0" t="s">
-        <v>1485</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="722" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A722" s="11" t="s">
+        <v>1518</v>
       </c>
       <c r="B722" s="0" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A723" s="0" t="s">
-        <v>1486</v>
+        <v>1519</v>
       </c>
       <c r="B723" s="0" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
     </row>
     <row r="724" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A724" s="0" t="s">
-        <v>1487</v>
+        <v>1520</v>
       </c>
       <c r="B724" s="0" t="s">
-        <v>248</v>
+        <v>421</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A725" s="0" t="s">
-        <v>1488</v>
+        <v>1521</v>
       </c>
       <c r="B725" s="0" t="s">
-        <v>248</v>
+        <v>421</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A726" s="0" t="s">
-        <v>1489</v>
+        <v>1522</v>
       </c>
       <c r="B726" s="0" t="s">
-        <v>248</v>
+        <v>417</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A727" s="0" t="s">
-        <v>1490</v>
+        <v>1523</v>
       </c>
       <c r="B727" s="0" t="s">
-        <v>248</v>
+        <v>438</v>
       </c>
     </row>
     <row r="728" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A728" s="0" t="s">
-        <v>1491</v>
+        <v>1524</v>
       </c>
       <c r="B728" s="0" t="s">
-        <v>248</v>
+        <v>438</v>
       </c>
     </row>
     <row r="729" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A729" s="0" t="s">
-        <v>1492</v>
+        <v>1525</v>
       </c>
       <c r="B729" s="0" t="s">
-        <v>250</v>
+        <v>434</v>
       </c>
     </row>
     <row r="730" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A730" s="0" t="s">
-        <v>1493</v>
+        <v>1526</v>
       </c>
       <c r="B730" s="0" t="s">
-        <v>249</v>
+        <v>434</v>
       </c>
     </row>
     <row r="731" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A731" s="0" t="s">
-        <v>1494</v>
+        <v>1527</v>
       </c>
       <c r="B731" s="0" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A732" s="0" t="s">
-        <v>1495</v>
+        <v>1528</v>
       </c>
       <c r="B732" s="0" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A733" s="0" t="s">
-        <v>1496</v>
+        <v>1529</v>
       </c>
       <c r="B733" s="0" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A734" s="0" t="s">
-        <v>1497</v>
+        <v>1530</v>
       </c>
       <c r="B734" s="0" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A735" s="0" t="s">
-        <v>1498</v>
+        <v>1531</v>
       </c>
       <c r="B735" s="0" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A736" s="0" t="s">
-        <v>1499</v>
+        <v>1532</v>
       </c>
       <c r="B736" s="0" t="s">
-        <v>457</v>
+        <v>420</v>
       </c>
     </row>
     <row r="737" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A737" s="0" t="s">
-        <v>1500</v>
+        <v>1533</v>
       </c>
       <c r="B737" s="0" t="s">
-        <v>457</v>
+        <v>420</v>
       </c>
     </row>
     <row r="738" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A738" s="0" t="s">
-        <v>1501</v>
+        <v>1534</v>
       </c>
       <c r="B738" s="0" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
     </row>
     <row r="739" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A739" s="0" t="s">
-        <v>1502</v>
+        <v>1535</v>
       </c>
       <c r="B739" s="0" t="s">
-        <v>457</v>
+        <v>635</v>
       </c>
     </row>
     <row r="740" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A740" s="0" t="s">
-        <v>1503</v>
+        <v>1536</v>
       </c>
       <c r="B740" s="0" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
     </row>
     <row r="741" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A741" s="0" t="s">
-        <v>1504</v>
+        <v>1537</v>
       </c>
       <c r="B741" s="0" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A742" s="0" t="s">
-        <v>1505</v>
+        <v>1538</v>
       </c>
       <c r="B742" s="0" t="s">
-        <v>447</v>
+        <v>478</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A743" s="0" t="s">
-        <v>1506</v>
+        <v>1539</v>
       </c>
       <c r="B743" s="0" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A744" s="0" t="s">
-        <v>1507</v>
+        <v>1540</v>
       </c>
       <c r="B744" s="0" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A745" s="0" t="s">
-        <v>1508</v>
+        <v>1541</v>
       </c>
       <c r="B745" s="0" t="s">
-        <v>458</v>
+        <v>478</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A746" s="0" t="s">
-        <v>1509</v>
+        <v>1542</v>
       </c>
       <c r="B746" s="0" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A747" s="0" t="s">
-        <v>1510</v>
+        <v>1543</v>
       </c>
       <c r="B747" s="0" t="s">
-        <v>445</v>
+        <v>637</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A748" s="0" t="s">
-        <v>1511</v>
+        <v>1544</v>
       </c>
       <c r="B748" s="0" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A749" s="0" t="s">
-        <v>1512</v>
+        <v>1545</v>
       </c>
       <c r="B749" s="0" t="s">
-        <v>450</v>
+        <v>282</v>
       </c>
     </row>
     <row r="750" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A750" s="0" t="s">
-        <v>1513</v>
+        <v>1546</v>
       </c>
       <c r="B750" s="0" t="s">
-        <v>450</v>
+        <v>282</v>
       </c>
     </row>
     <row r="751" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A751" s="0" t="s">
-        <v>1514</v>
+        <v>1547</v>
       </c>
       <c r="B751" s="0" t="s">
-        <v>446</v>
+        <v>282</v>
       </c>
     </row>
     <row r="752" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A752" s="0" t="s">
-        <v>1515</v>
+        <v>1548</v>
       </c>
       <c r="B752" s="0" t="s">
-        <v>444</v>
+        <v>282</v>
       </c>
     </row>
     <row r="753" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A753" s="0" t="s">
-        <v>1516</v>
+        <v>1549</v>
       </c>
       <c r="B753" s="0" t="s">
-        <v>448</v>
+        <v>483</v>
       </c>
     </row>
     <row r="754" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A754" s="0" t="s">
-        <v>1517</v>
+        <v>1550</v>
       </c>
       <c r="B754" s="0" t="s">
-        <v>452</v>
+        <v>347</v>
       </c>
     </row>
     <row r="755" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A755" s="0" t="s">
-        <v>1518</v>
+        <v>1551</v>
       </c>
       <c r="B755" s="0" t="s">
-        <v>453</v>
+        <v>347</v>
       </c>
     </row>
     <row r="756" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A756" s="0" t="s">
-        <v>1519</v>
+        <v>1552</v>
       </c>
       <c r="B756" s="0" t="s">
-        <v>453</v>
+        <v>415</v>
       </c>
     </row>
     <row r="757" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A757" s="0" t="s">
-        <v>1520</v>
+        <v>1553</v>
       </c>
       <c r="B757" s="0" t="s">
-        <v>453</v>
+        <v>433</v>
       </c>
     </row>
     <row r="758" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A758" s="0" t="s">
-        <v>1521</v>
+        <v>1554</v>
       </c>
       <c r="B758" s="0" t="s">
-        <v>453</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="759" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A759" s="0" t="s">
-        <v>1522</v>
+        <v>1556</v>
       </c>
       <c r="B759" s="0" t="s">
-        <v>454</v>
+        <v>437</v>
       </c>
     </row>
     <row r="760" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A760" s="0" t="s">
-        <v>1523</v>
+        <v>1557</v>
       </c>
       <c r="B760" s="0" t="s">
-        <v>454</v>
+        <v>436</v>
       </c>
     </row>
     <row r="761" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A761" s="0" t="s">
-        <v>1524</v>
+        <v>1558</v>
       </c>
       <c r="B761" s="0" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
     </row>
     <row r="762" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A762" s="0" t="s">
-        <v>1525</v>
+        <v>1559</v>
       </c>
       <c r="B762" s="0" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
     </row>
     <row r="763" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A763" s="0" t="s">
-        <v>1526</v>
+        <v>1560</v>
       </c>
       <c r="B763" s="0" t="s">
-        <v>455</v>
+        <v>248</v>
       </c>
     </row>
     <row r="764" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A764" s="0" t="s">
-        <v>1527</v>
+        <v>1561</v>
       </c>
       <c r="B764" s="0" t="s">
-        <v>455</v>
+        <v>248</v>
       </c>
     </row>
     <row r="765" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A765" s="0" t="s">
-        <v>1528</v>
+        <v>1562</v>
       </c>
       <c r="B765" s="0" t="s">
-        <v>488</v>
+        <v>248</v>
       </c>
     </row>
     <row r="766" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A766" s="0" t="s">
-        <v>1529</v>
+        <v>1563</v>
       </c>
       <c r="B766" s="0" t="s">
-        <v>488</v>
+        <v>248</v>
       </c>
     </row>
     <row r="767" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A767" s="0" t="s">
-        <v>1530</v>
+        <v>1564</v>
       </c>
       <c r="B767" s="0" t="s">
-        <v>449</v>
+        <v>248</v>
       </c>
     </row>
     <row r="768" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A768" s="0" t="s">
-        <v>1531</v>
+        <v>1565</v>
       </c>
       <c r="B768" s="0" t="s">
-        <v>442</v>
+        <v>250</v>
       </c>
     </row>
     <row r="769" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A769" s="0" t="s">
-        <v>1532</v>
+        <v>1566</v>
       </c>
       <c r="B769" s="0" t="s">
-        <v>456</v>
+        <v>249</v>
       </c>
     </row>
     <row r="770" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A770" s="0" t="s">
-        <v>1533</v>
+        <v>1567</v>
       </c>
       <c r="B770" s="0" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
     </row>
     <row r="771" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A771" s="0" t="s">
-        <v>1534</v>
+        <v>1568</v>
       </c>
       <c r="B771" s="0" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="772" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A772" s="0" t="s">
-        <v>1535</v>
+        <v>1569</v>
       </c>
       <c r="B772" s="0" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="773" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A773" s="0" t="s">
-        <v>1536</v>
+        <v>1570</v>
       </c>
       <c r="B773" s="0" t="s">
-        <v>460</v>
+        <v>440</v>
       </c>
     </row>
     <row r="774" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A774" s="0" t="s">
-        <v>1537</v>
+        <v>1571</v>
       </c>
       <c r="B774" s="0" t="s">
-        <v>213</v>
+        <v>457</v>
       </c>
     </row>
     <row r="775" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A775" s="0" t="s">
-        <v>1538</v>
+        <v>1572</v>
       </c>
       <c r="B775" s="0" t="s">
-        <v>213</v>
+        <v>457</v>
       </c>
     </row>
     <row r="776" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A776" s="0" t="s">
-        <v>1539</v>
+        <v>1573</v>
       </c>
       <c r="B776" s="0" t="s">
-        <v>213</v>
+        <v>457</v>
       </c>
     </row>
     <row r="777" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A777" s="0" t="s">
-        <v>1540</v>
+        <v>1574</v>
       </c>
       <c r="B777" s="0" t="s">
-        <v>213</v>
+        <v>457</v>
       </c>
     </row>
     <row r="778" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A778" s="2" t="s">
-        <v>1541</v>
+      <c r="A778" s="0" t="s">
+        <v>1575</v>
       </c>
       <c r="B778" s="0" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="779" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A779" s="11" t="s">
-        <v>1542</v>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="779" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A779" s="0" t="s">
+        <v>1576</v>
       </c>
       <c r="B779" s="0" t="s">
-        <v>213</v>
+        <v>457</v>
       </c>
     </row>
     <row r="780" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A780" s="0" t="s">
-        <v>1543</v>
+        <v>1577</v>
       </c>
       <c r="B780" s="0" t="s">
-        <v>213</v>
+        <v>457</v>
       </c>
     </row>
     <row r="781" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A781" s="0" t="s">
-        <v>1544</v>
+        <v>1578</v>
       </c>
       <c r="B781" s="0" t="s">
-        <v>294</v>
+        <v>447</v>
       </c>
     </row>
     <row r="782" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A782" s="0" t="s">
-        <v>1545</v>
+        <v>1579</v>
       </c>
       <c r="B782" s="0" t="s">
-        <v>294</v>
+        <v>458</v>
       </c>
     </row>
     <row r="783" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A783" s="0" t="s">
-        <v>1546</v>
+        <v>1580</v>
       </c>
       <c r="B783" s="0" t="s">
-        <v>294</v>
+        <v>458</v>
       </c>
     </row>
     <row r="784" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A784" s="0" t="s">
-        <v>1547</v>
+        <v>1581</v>
       </c>
       <c r="B784" s="0" t="s">
-        <v>294</v>
+        <v>458</v>
       </c>
     </row>
     <row r="785" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A785" s="0" t="s">
-        <v>1548</v>
+        <v>1582</v>
       </c>
       <c r="B785" s="0" t="s">
-        <v>294</v>
+        <v>458</v>
       </c>
     </row>
     <row r="786" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A786" s="0" t="s">
-        <v>1549</v>
+        <v>1583</v>
       </c>
       <c r="B786" s="0" t="s">
-        <v>294</v>
+        <v>445</v>
       </c>
     </row>
     <row r="787" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A787" s="0" t="s">
-        <v>1550</v>
+        <v>1584</v>
       </c>
       <c r="B787" s="0" t="s">
-        <v>294</v>
+        <v>445</v>
       </c>
     </row>
     <row r="788" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A788" s="0" t="s">
-        <v>1551</v>
+        <v>1585</v>
       </c>
       <c r="B788" s="0" t="s">
-        <v>279</v>
+        <v>450</v>
       </c>
     </row>
     <row r="789" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A789" s="0" t="s">
-        <v>1552</v>
+        <v>1586</v>
       </c>
       <c r="B789" s="0" t="s">
-        <v>279</v>
+        <v>450</v>
       </c>
     </row>
     <row r="790" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A790" s="0" t="s">
-        <v>1553</v>
+        <v>1587</v>
       </c>
       <c r="B790" s="0" t="s">
-        <v>414</v>
+        <v>446</v>
       </c>
     </row>
     <row r="791" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A791" s="0" t="s">
-        <v>1554</v>
+        <v>1588</v>
       </c>
       <c r="B791" s="0" t="s">
-        <v>384</v>
+        <v>444</v>
       </c>
     </row>
     <row r="792" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A792" s="0" t="s">
-        <v>1555</v>
+        <v>1589</v>
       </c>
       <c r="B792" s="0" t="s">
-        <v>294</v>
+        <v>448</v>
       </c>
     </row>
     <row r="793" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A793" s="0" t="s">
-        <v>1556</v>
+        <v>1590</v>
       </c>
       <c r="B793" s="0" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
     </row>
     <row r="794" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A794" s="0" t="s">
-        <v>1557</v>
+        <v>1591</v>
       </c>
       <c r="B794" s="0" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="795" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A795" s="0" t="s">
-        <v>1558</v>
+        <v>1592</v>
       </c>
       <c r="B795" s="0" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="796" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A796" s="0" t="s">
-        <v>1559</v>
+        <v>1593</v>
       </c>
       <c r="B796" s="0" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="797" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A797" s="0" t="s">
-        <v>462</v>
+        <v>1594</v>
       </c>
       <c r="B797" s="0" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="798" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A798" s="0" t="s">
-        <v>1560</v>
+        <v>1595</v>
       </c>
       <c r="B798" s="0" t="s">
-        <v>1561</v>
+        <v>454</v>
       </c>
     </row>
     <row r="799" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A799" s="0" t="s">
-        <v>1562</v>
+        <v>1596</v>
       </c>
       <c r="B799" s="0" t="s">
-        <v>486</v>
+        <v>454</v>
       </c>
     </row>
     <row r="800" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A800" s="0" t="s">
-        <v>1563</v>
+        <v>1597</v>
       </c>
       <c r="B800" s="0" t="s">
-        <v>580</v>
+        <v>455</v>
       </c>
     </row>
     <row r="801" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A801" s="0" t="s">
-        <v>1564</v>
+        <v>1598</v>
       </c>
       <c r="B801" s="0" t="s">
-        <v>581</v>
+        <v>455</v>
       </c>
     </row>
     <row r="802" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A802" s="0" t="s">
-        <v>1565</v>
+        <v>1599</v>
       </c>
       <c r="B802" s="0" t="s">
-        <v>582</v>
+        <v>455</v>
       </c>
     </row>
     <row r="803" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A803" s="0" t="s">
-        <v>1566</v>
+        <v>1600</v>
       </c>
       <c r="B803" s="0" t="s">
-        <v>583</v>
+        <v>455</v>
       </c>
     </row>
     <row r="804" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A804" s="0" t="s">
-        <v>1567</v>
+        <v>1601</v>
       </c>
       <c r="B804" s="0" t="s">
-        <v>584</v>
+        <v>488</v>
       </c>
     </row>
     <row r="805" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A805" s="0" t="s">
-        <v>1568</v>
+        <v>1602</v>
       </c>
       <c r="B805" s="0" t="s">
-        <v>585</v>
+        <v>488</v>
       </c>
     </row>
     <row r="806" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A806" s="0" t="s">
-        <v>1569</v>
+        <v>1603</v>
       </c>
       <c r="B806" s="0" t="s">
-        <v>586</v>
+        <v>449</v>
       </c>
     </row>
     <row r="807" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A807" s="0" t="s">
-        <v>1570</v>
+        <v>1604</v>
       </c>
       <c r="B807" s="0" t="s">
-        <v>587</v>
+        <v>442</v>
       </c>
     </row>
     <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A808" s="0" t="s">
-        <v>1571</v>
+        <v>1605</v>
       </c>
       <c r="B808" s="0" t="s">
-        <v>1572</v>
+        <v>456</v>
       </c>
     </row>
     <row r="809" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A809" s="0" t="s">
-        <v>1573</v>
+        <v>1606</v>
       </c>
       <c r="B809" s="0" t="s">
-        <v>588</v>
+        <v>459</v>
       </c>
     </row>
     <row r="810" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A810" s="0" t="s">
-        <v>1574</v>
+        <v>1607</v>
       </c>
       <c r="B810" s="0" t="s">
-        <v>589</v>
+        <v>460</v>
       </c>
     </row>
     <row r="811" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A811" s="0" t="s">
-        <v>1575</v>
+        <v>1608</v>
       </c>
       <c r="B811" s="0" t="s">
-        <v>589</v>
+        <v>460</v>
       </c>
     </row>
     <row r="812" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A812" s="0" t="s">
-        <v>1576</v>
+        <v>1609</v>
       </c>
       <c r="B812" s="0" t="s">
-        <v>590</v>
+        <v>460</v>
       </c>
     </row>
     <row r="813" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A813" s="0" t="s">
-        <v>1577</v>
+        <v>1610</v>
       </c>
       <c r="B813" s="0" t="s">
-        <v>591</v>
+        <v>213</v>
       </c>
     </row>
     <row r="814" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A814" s="0" t="s">
-        <v>1578</v>
+        <v>1611</v>
       </c>
       <c r="B814" s="0" t="s">
-        <v>592</v>
+        <v>213</v>
       </c>
     </row>
     <row r="815" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A815" s="0" t="s">
-        <v>1579</v>
+        <v>1612</v>
       </c>
       <c r="B815" s="0" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="816" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A816" s="11" t="s">
-        <v>1580</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="816" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A816" s="0" t="s">
+        <v>1613</v>
       </c>
       <c r="B816" s="0" t="s">
-        <v>593</v>
+        <v>213</v>
       </c>
     </row>
     <row r="817" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A817" s="0" t="s">
-        <v>1581</v>
+      <c r="A817" s="2" t="s">
+        <v>1614</v>
       </c>
       <c r="B817" s="0" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="818" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A818" s="0" t="s">
-        <v>1582</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="818" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A818" s="11" t="s">
+        <v>1615</v>
       </c>
       <c r="B818" s="0" t="s">
-        <v>595</v>
+        <v>213</v>
       </c>
     </row>
     <row r="819" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A819" s="0" t="s">
-        <v>1583</v>
+        <v>1616</v>
       </c>
       <c r="B819" s="0" t="s">
-        <v>596</v>
+        <v>213</v>
       </c>
     </row>
     <row r="820" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A820" s="0" t="s">
-        <v>1584</v>
+        <v>1617</v>
       </c>
       <c r="B820" s="0" t="s">
-        <v>597</v>
+        <v>294</v>
       </c>
     </row>
     <row r="821" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A821" s="0" t="s">
-        <v>1585</v>
+        <v>1618</v>
       </c>
       <c r="B821" s="0" t="s">
-        <v>598</v>
+        <v>294</v>
       </c>
     </row>
     <row r="822" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A822" s="0" t="s">
-        <v>1586</v>
+        <v>1619</v>
       </c>
       <c r="B822" s="0" t="s">
-        <v>599</v>
+        <v>294</v>
       </c>
     </row>
     <row r="823" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A823" s="0" t="s">
-        <v>1587</v>
+        <v>1620</v>
       </c>
       <c r="B823" s="0" t="s">
-        <v>600</v>
+        <v>294</v>
       </c>
     </row>
     <row r="824" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A824" s="0" t="s">
-        <v>1588</v>
+        <v>1621</v>
       </c>
       <c r="B824" s="0" t="s">
-        <v>601</v>
+        <v>294</v>
       </c>
     </row>
     <row r="825" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A825" s="0" t="s">
-        <v>1589</v>
+        <v>1622</v>
       </c>
       <c r="B825" s="0" t="s">
-        <v>602</v>
+        <v>294</v>
       </c>
     </row>
     <row r="826" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A826" s="0" t="s">
-        <v>1590</v>
+        <v>1623</v>
       </c>
       <c r="B826" s="0" t="s">
-        <v>603</v>
+        <v>294</v>
       </c>
     </row>
     <row r="827" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A827" s="0" t="s">
-        <v>1591</v>
+        <v>1624</v>
       </c>
       <c r="B827" s="0" t="s">
-        <v>604</v>
+        <v>279</v>
       </c>
     </row>
     <row r="828" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A828" s="0" t="s">
-        <v>1592</v>
+        <v>1625</v>
       </c>
       <c r="B828" s="0" t="s">
-        <v>605</v>
+        <v>279</v>
       </c>
     </row>
     <row r="829" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A829" s="0" t="s">
-        <v>1593</v>
+        <v>1626</v>
       </c>
       <c r="B829" s="0" t="s">
-        <v>606</v>
+        <v>414</v>
       </c>
     </row>
     <row r="830" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A830" s="0" t="s">
-        <v>1594</v>
+        <v>1627</v>
       </c>
       <c r="B830" s="0" t="s">
-        <v>607</v>
+        <v>384</v>
       </c>
     </row>
     <row r="831" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A831" s="0" t="s">
-        <v>1595</v>
+        <v>1628</v>
       </c>
       <c r="B831" s="0" t="s">
-        <v>608</v>
+        <v>294</v>
       </c>
     </row>
     <row r="832" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A832" s="0" t="s">
-        <v>1596</v>
+        <v>1629</v>
       </c>
       <c r="B832" s="0" t="s">
-        <v>609</v>
+        <v>462</v>
       </c>
     </row>
     <row r="833" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A833" s="0" t="s">
-        <v>1597</v>
+        <v>1630</v>
       </c>
       <c r="B833" s="0" t="s">
-        <v>610</v>
+        <v>462</v>
       </c>
     </row>
     <row r="834" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A834" s="0" t="s">
-        <v>1598</v>
+        <v>1631</v>
       </c>
       <c r="B834" s="0" t="s">
-        <v>611</v>
+        <v>462</v>
       </c>
     </row>
     <row r="835" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A835" s="0" t="s">
-        <v>1599</v>
+        <v>1632</v>
       </c>
       <c r="B835" s="0" t="s">
-        <v>612</v>
+        <v>462</v>
       </c>
     </row>
     <row r="836" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A836" s="0" t="s">
-        <v>1600</v>
+        <v>462</v>
       </c>
       <c r="B836" s="0" t="s">
-        <v>613</v>
+        <v>462</v>
       </c>
     </row>
     <row r="837" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A837" s="0" t="s">
-        <v>1601</v>
+        <v>1633</v>
       </c>
       <c r="B837" s="0" t="s">
-        <v>614</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="838" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A838" s="0" t="s">
-        <v>1602</v>
+        <v>1635</v>
       </c>
       <c r="B838" s="0" t="s">
-        <v>615</v>
+        <v>486</v>
       </c>
     </row>
     <row r="839" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A839" s="0" t="s">
-        <v>1603</v>
+        <v>1636</v>
       </c>
       <c r="B839" s="0" t="s">
-        <v>616</v>
+        <v>580</v>
       </c>
     </row>
     <row r="840" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A840" s="0" t="s">
-        <v>1604</v>
+        <v>1637</v>
       </c>
       <c r="B840" s="0" t="s">
-        <v>617</v>
+        <v>581</v>
       </c>
     </row>
     <row r="841" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A841" s="0" t="s">
-        <v>1605</v>
+        <v>1638</v>
       </c>
       <c r="B841" s="0" t="s">
-        <v>618</v>
+        <v>582</v>
       </c>
     </row>
     <row r="842" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A842" s="0" t="s">
-        <v>1606</v>
+        <v>1639</v>
       </c>
       <c r="B842" s="0" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
     </row>
     <row r="843" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A843" s="0" t="s">
-        <v>1607</v>
+        <v>1640</v>
       </c>
       <c r="B843" s="0" t="s">
-        <v>620</v>
+        <v>584</v>
       </c>
     </row>
     <row r="844" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A844" s="0" t="s">
-        <v>1608</v>
+        <v>1641</v>
       </c>
       <c r="B844" s="0" t="s">
-        <v>621</v>
+        <v>585</v>
       </c>
     </row>
     <row r="845" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A845" s="0" t="s">
-        <v>1609</v>
+        <v>1642</v>
       </c>
       <c r="B845" s="0" t="s">
-        <v>622</v>
+        <v>586</v>
       </c>
     </row>
     <row r="846" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A846" s="0" t="s">
-        <v>1610</v>
+        <v>1643</v>
       </c>
       <c r="B846" s="0" t="s">
-        <v>623</v>
+        <v>587</v>
       </c>
     </row>
     <row r="847" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A847" s="0" t="s">
-        <v>1611</v>
+        <v>1644</v>
       </c>
       <c r="B847" s="0" t="s">
-        <v>624</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="848" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A848" s="0" t="s">
-        <v>1612</v>
+        <v>1646</v>
       </c>
       <c r="B848" s="0" t="s">
-        <v>625</v>
+        <v>588</v>
       </c>
     </row>
     <row r="849" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A849" s="0" t="s">
-        <v>1613</v>
+        <v>1647</v>
       </c>
       <c r="B849" s="0" t="s">
-        <v>626</v>
+        <v>589</v>
       </c>
     </row>
     <row r="850" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A850" s="0" t="s">
-        <v>1614</v>
+        <v>1648</v>
       </c>
       <c r="B850" s="0" t="s">
-        <v>627</v>
+        <v>589</v>
       </c>
     </row>
     <row r="851" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A851" s="0" t="s">
-        <v>1615</v>
+        <v>1649</v>
       </c>
       <c r="B851" s="0" t="s">
-        <v>628</v>
+        <v>590</v>
       </c>
     </row>
     <row r="852" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A852" s="0" t="s">
-        <v>1616</v>
+        <v>1650</v>
       </c>
       <c r="B852" s="0" t="s">
-        <v>629</v>
+        <v>591</v>
       </c>
     </row>
     <row r="853" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A853" s="0" t="s">
-        <v>1617</v>
+        <v>1651</v>
       </c>
       <c r="B853" s="0" t="s">
-        <v>461</v>
+        <v>592</v>
       </c>
     </row>
     <row r="854" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A854" s="0" t="s">
-        <v>1618</v>
+        <v>1652</v>
       </c>
       <c r="B854" s="0" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="855" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A855" s="0" t="s">
-        <v>1619</v>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="855" customFormat="false" ht="13.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A855" s="11" t="s">
+        <v>1653</v>
       </c>
       <c r="B855" s="0" t="s">
-        <v>432</v>
+        <v>593</v>
       </c>
     </row>
     <row r="856" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A856" s="0" t="s">
-        <v>1620</v>
+        <v>1654</v>
       </c>
       <c r="B856" s="0" t="s">
-        <v>432</v>
+        <v>594</v>
       </c>
     </row>
     <row r="857" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A857" s="0" t="s">
-        <v>1621</v>
+        <v>1655</v>
       </c>
       <c r="B857" s="0" t="s">
-        <v>463</v>
+        <v>595</v>
       </c>
     </row>
     <row r="858" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A858" s="0" t="s">
-        <v>1622</v>
+        <v>1656</v>
       </c>
       <c r="B858" s="0" t="s">
-        <v>463</v>
+        <v>596</v>
       </c>
     </row>
     <row r="859" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A859" s="0" t="s">
-        <v>1623</v>
+        <v>1657</v>
       </c>
       <c r="B859" s="0" t="s">
-        <v>470</v>
+        <v>597</v>
       </c>
     </row>
     <row r="860" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A860" s="0" t="s">
-        <v>1624</v>
+        <v>1658</v>
       </c>
       <c r="B860" s="0" t="s">
-        <v>466</v>
+        <v>598</v>
       </c>
     </row>
     <row r="861" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A861" s="0" t="s">
-        <v>1625</v>
+        <v>1659</v>
       </c>
       <c r="B861" s="0" t="s">
-        <v>466</v>
+        <v>599</v>
       </c>
     </row>
     <row r="862" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A862" s="0" t="s">
-        <v>1626</v>
+        <v>1660</v>
       </c>
       <c r="B862" s="0" t="s">
-        <v>466</v>
+        <v>600</v>
       </c>
     </row>
     <row r="863" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A863" s="0" t="s">
-        <v>1627</v>
+        <v>1661</v>
       </c>
       <c r="B863" s="0" t="s">
-        <v>466</v>
+        <v>601</v>
       </c>
     </row>
     <row r="864" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A864" s="0" t="s">
-        <v>1628</v>
+        <v>1662</v>
       </c>
       <c r="B864" s="0" t="s">
-        <v>466</v>
+        <v>602</v>
       </c>
     </row>
     <row r="865" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A865" s="0" t="s">
-        <v>1629</v>
+        <v>1663</v>
       </c>
       <c r="B865" s="0" t="s">
-        <v>363</v>
+        <v>603</v>
       </c>
     </row>
     <row r="866" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A866" s="0" t="s">
-        <v>1630</v>
+        <v>1664</v>
       </c>
       <c r="B866" s="0" t="s">
-        <v>363</v>
+        <v>604</v>
       </c>
     </row>
     <row r="867" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A867" s="0" t="s">
-        <v>1631</v>
+        <v>1665</v>
       </c>
       <c r="B867" s="0" t="s">
-        <v>469</v>
+        <v>605</v>
       </c>
     </row>
     <row r="868" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A868" s="0" t="s">
-        <v>1632</v>
+        <v>1666</v>
       </c>
       <c r="B868" s="0" t="s">
-        <v>469</v>
+        <v>606</v>
       </c>
     </row>
     <row r="869" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A869" s="0" t="s">
-        <v>1633</v>
+        <v>1667</v>
       </c>
       <c r="B869" s="0" t="s">
-        <v>467</v>
+        <v>607</v>
       </c>
     </row>
     <row r="870" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A870" s="0" t="s">
-        <v>1634</v>
+        <v>1668</v>
       </c>
       <c r="B870" s="0" t="s">
-        <v>467</v>
+        <v>608</v>
       </c>
     </row>
     <row r="871" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A871" s="0" t="s">
-        <v>1635</v>
+        <v>1669</v>
       </c>
       <c r="B871" s="0" t="s">
-        <v>468</v>
+        <v>609</v>
       </c>
     </row>
     <row r="872" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A872" s="0" t="s">
-        <v>1636</v>
+        <v>1670</v>
       </c>
       <c r="B872" s="0" t="s">
-        <v>468</v>
+        <v>610</v>
       </c>
     </row>
     <row r="873" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A873" s="0" t="s">
-        <v>1637</v>
+        <v>1671</v>
       </c>
       <c r="B873" s="0" t="s">
-        <v>468</v>
+        <v>611</v>
       </c>
     </row>
     <row r="874" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A874" s="0" t="s">
-        <v>1638</v>
+        <v>1672</v>
       </c>
       <c r="B874" s="0" t="s">
-        <v>468</v>
+        <v>612</v>
       </c>
     </row>
     <row r="875" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A875" s="0" t="s">
-        <v>1639</v>
+        <v>1673</v>
       </c>
       <c r="B875" s="0" t="s">
-        <v>468</v>
+        <v>613</v>
       </c>
     </row>
     <row r="876" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A876" s="0" t="s">
-        <v>1640</v>
+        <v>1674</v>
       </c>
       <c r="B876" s="0" t="s">
-        <v>468</v>
+        <v>614</v>
       </c>
     </row>
     <row r="877" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A877" s="0" t="s">
-        <v>1641</v>
+        <v>1675</v>
       </c>
       <c r="B877" s="0" t="s">
-        <v>468</v>
+        <v>615</v>
       </c>
     </row>
     <row r="878" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A878" s="0" t="s">
-        <v>1642</v>
+        <v>1676</v>
       </c>
       <c r="B878" s="0" t="s">
-        <v>468</v>
+        <v>616</v>
       </c>
     </row>
     <row r="879" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A879" s="0" t="s">
-        <v>1643</v>
+        <v>1677</v>
       </c>
       <c r="B879" s="0" t="s">
-        <v>473</v>
+        <v>617</v>
       </c>
     </row>
     <row r="880" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A880" s="0" t="s">
-        <v>1644</v>
+        <v>1678</v>
       </c>
       <c r="B880" s="0" t="s">
-        <v>473</v>
+        <v>618</v>
       </c>
     </row>
     <row r="881" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A881" s="0" t="s">
-        <v>1645</v>
+        <v>1679</v>
       </c>
       <c r="B881" s="0" t="s">
-        <v>281</v>
+        <v>619</v>
       </c>
     </row>
     <row r="882" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A882" s="0" t="s">
-        <v>1646</v>
+        <v>1680</v>
       </c>
       <c r="B882" s="0" t="s">
-        <v>281</v>
+        <v>620</v>
       </c>
     </row>
     <row r="883" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A883" s="0" t="s">
-        <v>1647</v>
+        <v>1681</v>
       </c>
       <c r="B883" s="0" t="s">
-        <v>281</v>
+        <v>621</v>
       </c>
     </row>
     <row r="884" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A884" s="0" t="s">
-        <v>1648</v>
+        <v>1682</v>
       </c>
       <c r="B884" s="0" t="s">
-        <v>474</v>
+        <v>622</v>
       </c>
     </row>
     <row r="885" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A885" s="0" t="s">
-        <v>1649</v>
+        <v>1683</v>
       </c>
       <c r="B885" s="0" t="s">
-        <v>475</v>
+        <v>623</v>
       </c>
     </row>
     <row r="886" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A886" s="0" t="s">
-        <v>1650</v>
+        <v>1684</v>
       </c>
       <c r="B886" s="0" t="s">
-        <v>475</v>
+        <v>624</v>
       </c>
     </row>
     <row r="887" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A887" s="0" t="s">
-        <v>1651</v>
+        <v>1685</v>
       </c>
       <c r="B887" s="0" t="s">
-        <v>475</v>
+        <v>625</v>
       </c>
     </row>
     <row r="888" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A888" s="0" t="s">
-        <v>1652</v>
+        <v>1686</v>
       </c>
       <c r="B888" s="0" t="s">
-        <v>475</v>
+        <v>626</v>
       </c>
     </row>
     <row r="889" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A889" s="0" t="s">
-        <v>1653</v>
+        <v>1687</v>
       </c>
       <c r="B889" s="0" t="s">
-        <v>477</v>
+        <v>627</v>
       </c>
     </row>
     <row r="890" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A890" s="0" t="s">
-        <v>1654</v>
+        <v>1688</v>
       </c>
       <c r="B890" s="0" t="s">
-        <v>477</v>
+        <v>628</v>
       </c>
     </row>
     <row r="891" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A891" s="0" t="s">
-        <v>1655</v>
+        <v>1689</v>
       </c>
       <c r="B891" s="0" t="s">
-        <v>477</v>
+        <v>629</v>
       </c>
     </row>
     <row r="892" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A892" s="0" t="s">
-        <v>1656</v>
+        <v>1690</v>
       </c>
       <c r="B892" s="0" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
     </row>
     <row r="893" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A893" s="0" t="s">
-        <v>1657</v>
+        <v>1691</v>
       </c>
       <c r="B893" s="0" t="s">
-        <v>476</v>
+        <v>432</v>
       </c>
     </row>
     <row r="894" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A894" s="0" t="s">
-        <v>1658</v>
+        <v>1692</v>
       </c>
       <c r="B894" s="0" t="s">
-        <v>476</v>
+        <v>432</v>
       </c>
     </row>
     <row r="895" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A895" s="0" t="s">
-        <v>1659</v>
+        <v>1693</v>
       </c>
       <c r="B895" s="0" t="s">
-        <v>480</v>
+        <v>432</v>
       </c>
     </row>
     <row r="896" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A896" s="0" t="s">
-        <v>1660</v>
+        <v>1694</v>
       </c>
       <c r="B896" s="0" t="s">
-        <v>481</v>
+        <v>463</v>
       </c>
     </row>
     <row r="897" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A897" s="0" t="s">
-        <v>1661</v>
+        <v>1695</v>
       </c>
       <c r="B897" s="0" t="s">
-        <v>276</v>
+        <v>463</v>
       </c>
     </row>
     <row r="898" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A898" s="0" t="s">
-        <v>1662</v>
+        <v>1696</v>
       </c>
       <c r="B898" s="0" t="s">
-        <v>285</v>
+        <v>470</v>
       </c>
     </row>
     <row r="899" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A899" s="0" t="s">
-        <v>1663</v>
+        <v>1697</v>
       </c>
       <c r="B899" s="0" t="s">
-        <v>247</v>
+        <v>466</v>
       </c>
     </row>
     <row r="900" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A900" s="0" t="s">
-        <v>1664</v>
+        <v>1698</v>
       </c>
       <c r="B900" s="0" t="s">
-        <v>247</v>
+        <v>466</v>
       </c>
     </row>
     <row r="901" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A901" s="0" t="s">
-        <v>1665</v>
+        <v>1699</v>
       </c>
       <c r="B901" s="0" t="s">
-        <v>247</v>
+        <v>466</v>
       </c>
     </row>
     <row r="902" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A902" s="0" t="s">
-        <v>1666</v>
+        <v>1700</v>
       </c>
       <c r="B902" s="0" t="s">
-        <v>631</v>
+        <v>466</v>
       </c>
     </row>
     <row r="903" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A903" s="0" t="s">
-        <v>1667</v>
+        <v>1701</v>
       </c>
       <c r="B903" s="0" t="s">
-        <v>634</v>
+        <v>466</v>
       </c>
     </row>
     <row r="904" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A904" s="0" t="s">
-        <v>1668</v>
+        <v>1702</v>
       </c>
       <c r="B904" s="0" t="s">
-        <v>638</v>
+        <v>363</v>
       </c>
     </row>
     <row r="905" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A905" s="0" t="s">
-        <v>1669</v>
+        <v>1703</v>
       </c>
       <c r="B905" s="0" t="s">
-        <v>639</v>
+        <v>363</v>
       </c>
     </row>
     <row r="906" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A906" s="0" t="s">
-        <v>1670</v>
+        <v>1704</v>
       </c>
       <c r="B906" s="0" t="s">
-        <v>640</v>
+        <v>469</v>
       </c>
     </row>
     <row r="907" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A907" s="0" t="s">
-        <v>1671</v>
+        <v>1705</v>
       </c>
       <c r="B907" s="0" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="908" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A908" s="0" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B908" s="0" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="909" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A909" s="0" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B909" s="0" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="910" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A910" s="0" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B910" s="0" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="911" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A911" s="0" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B911" s="0" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="912" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A912" s="0" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B912" s="0" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="913" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A913" s="0" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B913" s="0" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="914" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A914" s="0" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B914" s="0" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="915" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A915" s="0" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B915" s="0" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="916" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A916" s="0" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B916" s="0" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="917" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A917" s="0" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B917" s="0" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="918" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A918" s="0" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B918" s="0" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="919" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A919" s="0" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B919" s="0" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="920" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A920" s="0" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B920" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="921" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A921" s="0" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B921" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="922" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A922" s="0" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B922" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="923" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A923" s="0" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B923" s="0" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="924" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A924" s="0" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B924" s="0" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="925" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A925" s="0" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B925" s="0" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="926" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A926" s="0" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B926" s="0" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="927" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A927" s="0" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B927" s="0" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="928" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A928" s="0" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B928" s="0" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="929" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A929" s="0" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B929" s="0" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="930" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A930" s="0" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B930" s="0" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="931" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A931" s="0" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B931" s="0" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="932" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A932" s="0" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B932" s="0" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="933" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A933" s="0" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B933" s="0" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="934" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A934" s="0" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B934" s="0" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="935" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A935" s="0" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B935" s="0" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="936" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A936" s="0" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B936" s="0" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="937" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A937" s="0" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B937" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="938" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A938" s="0" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B938" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="939" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A939" s="0" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B939" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="940" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A940" s="0" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B940" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="941" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A941" s="0" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B941" s="0" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="942" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A942" s="0" t="s">
+        <v>1740</v>
+      </c>
+      <c r="B942" s="0" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="943" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A943" s="0" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B943" s="0" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="944" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A944" s="0" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B944" s="0" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="945" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A945" s="0" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B945" s="0" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="946" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A946" s="0" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B946" s="0" t="s">
         <v>641</v>
       </c>
     </row>
